--- a/raw_data/20200818_saline/20200818_Sensor2_Test_25.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_25.xlsx
@@ -1,2502 +1,2918 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A34332A-71B6-4391-AAFE-C4E49DE0C773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>21972.281116</v>
+        <v>21972.281115999998</v>
       </c>
       <c r="B2" s="1">
-        <v>6.103411</v>
+        <v>6.1034110000000004</v>
       </c>
       <c r="C2" s="1">
-        <v>1241.320000</v>
+        <v>1241.32</v>
       </c>
       <c r="D2" s="1">
-        <v>-306.925000</v>
+        <v>-306.92500000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>21982.649488</v>
+        <v>21982.649487999999</v>
       </c>
       <c r="G2" s="1">
-        <v>6.106292</v>
+        <v>6.1062919999999998</v>
       </c>
       <c r="H2" s="1">
-        <v>1266.990000</v>
+        <v>1266.99</v>
       </c>
       <c r="I2" s="1">
-        <v>-264.864000</v>
+        <v>-264.86399999999998</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>21993.122048</v>
+        <v>21993.122048000001</v>
       </c>
       <c r="L2" s="1">
-        <v>6.109201</v>
+        <v>6.1092009999999997</v>
       </c>
       <c r="M2" s="1">
-        <v>1301.790000</v>
+        <v>1301.79</v>
       </c>
       <c r="N2" s="1">
-        <v>-202.575000</v>
+        <v>-202.57499999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>22003.628801</v>
+        <v>22003.628800999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>6.112119</v>
+        <v>6.1121189999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1313.270000</v>
+        <v>1313.27</v>
       </c>
       <c r="S2" s="1">
-        <v>-184.167000</v>
+        <v>-184.167</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>22014.187603</v>
+        <v>22014.187602999998</v>
       </c>
       <c r="V2" s="1">
-        <v>6.115052</v>
+        <v>6.1150520000000004</v>
       </c>
       <c r="W2" s="1">
-        <v>1326.090000</v>
+        <v>1326.09</v>
       </c>
       <c r="X2" s="1">
-        <v>-170.660000</v>
+        <v>-170.66</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>22024.939877</v>
+        <v>22024.939877000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>6.118039</v>
+        <v>6.1180389999999996</v>
       </c>
       <c r="AB2" s="1">
-        <v>1342.960000</v>
+        <v>1342.96</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.858000</v>
+        <v>-168.858</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>22035.473423</v>
+        <v>22035.473422999999</v>
       </c>
       <c r="AF2" s="1">
         <v>6.120965</v>
       </c>
       <c r="AG2" s="1">
-        <v>1355.870000</v>
+        <v>1355.87</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.485000</v>
+        <v>-178.48500000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>22045.529803</v>
+        <v>22045.529803000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>6.123758</v>
+        <v>6.1237579999999996</v>
       </c>
       <c r="AL2" s="1">
-        <v>1376.410000</v>
+        <v>1376.41</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.378000</v>
+        <v>-208.37799999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>22056.086156</v>
+        <v>22056.086156000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>6.126691</v>
+        <v>6.1266910000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1398.060000</v>
+        <v>1398.06</v>
       </c>
       <c r="AR2" s="1">
-        <v>-252.408000</v>
+        <v>-252.40799999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>22067.482733</v>
+        <v>22067.482733000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>6.129856</v>
+        <v>6.1298560000000002</v>
       </c>
       <c r="AV2" s="1">
-        <v>1422.680000</v>
+        <v>1422.68</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.496000</v>
+        <v>-312.49599999999998</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>22078.929406</v>
+        <v>22078.929405999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>6.133036</v>
+        <v>6.1330359999999997</v>
       </c>
       <c r="BA2" s="1">
-        <v>1442.110000</v>
+        <v>1442.11</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.653000</v>
+        <v>-364.65300000000002</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>22089.879119</v>
+        <v>22089.879119000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>6.136078</v>
+        <v>6.1360780000000004</v>
       </c>
       <c r="BF2" s="1">
-        <v>1528.050000</v>
+        <v>1528.05</v>
       </c>
       <c r="BG2" s="1">
-        <v>-613.070000</v>
+        <v>-613.07000000000005</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>22100.305491</v>
+        <v>22100.305490999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>6.138974</v>
+        <v>6.1389740000000002</v>
       </c>
       <c r="BK2" s="1">
-        <v>1684.050000</v>
+        <v>1684.05</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1057.220000</v>
+        <v>-1057.22</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>22111.011636</v>
+        <v>22111.011635999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>6.141948</v>
+        <v>6.1419480000000002</v>
       </c>
       <c r="BP2" s="1">
-        <v>1981.140000</v>
+        <v>1981.14</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1824.820000</v>
+        <v>-1824.82</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>22121.335862</v>
       </c>
       <c r="BT2" s="1">
-        <v>6.144816</v>
+        <v>6.1448159999999996</v>
       </c>
       <c r="BU2" s="1">
-        <v>2372.340000</v>
+        <v>2372.34</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2711.270000</v>
+        <v>-2711.27</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>22132.092649</v>
+        <v>22132.092648999998</v>
       </c>
       <c r="BY2" s="1">
-        <v>6.147804</v>
+        <v>6.1478039999999998</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2857.980000</v>
+        <v>2857.98</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3671.360000</v>
+        <v>-3671.36</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>22143.014505</v>
+        <v>22143.014504999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>6.150837</v>
+        <v>6.1508370000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>4295.000000</v>
+        <v>4295</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5991.190000</v>
+        <v>-5991.19</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>21972.633274</v>
       </c>
       <c r="B3" s="1">
-        <v>6.103509</v>
+        <v>6.1035089999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1241.390000</v>
+        <v>1241.3900000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-307.367000</v>
+        <v>-307.36700000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>21983.021981</v>
+        <v>21983.021981000002</v>
       </c>
       <c r="G3" s="1">
         <v>6.106395</v>
       </c>
       <c r="H3" s="1">
-        <v>1266.970000</v>
+        <v>1266.97</v>
       </c>
       <c r="I3" s="1">
-        <v>-265.082000</v>
+        <v>-265.08199999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>21993.500990</v>
+        <v>21993.50099</v>
       </c>
       <c r="L3" s="1">
-        <v>6.109306</v>
+        <v>6.1093060000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1301.900000</v>
+        <v>1301.9000000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-202.407000</v>
+        <v>-202.40700000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>22004.008210</v>
+        <v>22004.00821</v>
       </c>
       <c r="Q3" s="1">
-        <v>6.112225</v>
+        <v>6.1122249999999996</v>
       </c>
       <c r="R3" s="1">
-        <v>1313.270000</v>
+        <v>1313.27</v>
       </c>
       <c r="S3" s="1">
-        <v>-184.229000</v>
+        <v>-184.22900000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>22014.899858</v>
+        <v>22014.899858000001</v>
       </c>
       <c r="V3" s="1">
-        <v>6.115250</v>
+        <v>6.1152499999999996</v>
       </c>
       <c r="W3" s="1">
-        <v>1326.170000</v>
+        <v>1326.17</v>
       </c>
       <c r="X3" s="1">
-        <v>-170.605000</v>
+        <v>-170.60499999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>22025.287900</v>
+        <v>22025.287899999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>6.118136</v>
+        <v>6.1181359999999998</v>
       </c>
       <c r="AB3" s="1">
-        <v>1343.190000</v>
+        <v>1343.19</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.568000</v>
+        <v>-168.56800000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>22035.804278</v>
       </c>
       <c r="AF3" s="1">
-        <v>6.121057</v>
+        <v>6.1210570000000004</v>
       </c>
       <c r="AG3" s="1">
-        <v>1355.870000</v>
+        <v>1355.87</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.389000</v>
+        <v>-178.38900000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>22045.889897</v>
+        <v>22045.889897000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>6.123858</v>
+        <v>6.1238580000000002</v>
       </c>
       <c r="AL3" s="1">
-        <v>1376.410000</v>
+        <v>1376.41</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.400000</v>
+        <v>-208.4</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>22056.466092</v>
+        <v>22056.466091999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>6.126796</v>
+        <v>6.1267959999999997</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1398.060000</v>
+        <v>1398.06</v>
       </c>
       <c r="AR3" s="1">
-        <v>-252.386000</v>
+        <v>-252.386</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>22068.172172</v>
+        <v>22068.172171999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>6.130048</v>
+        <v>6.1300480000000004</v>
       </c>
       <c r="AV3" s="1">
-        <v>1422.680000</v>
+        <v>1422.68</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.451000</v>
+        <v>-312.45100000000002</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>22079.349517</v>
+        <v>22079.349516999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>6.133153</v>
+        <v>6.1331530000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1442.100000</v>
+        <v>1442.1</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.651000</v>
+        <v>-364.65100000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>22089.988703</v>
+        <v>22089.988702999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>6.136108</v>
+        <v>6.1361080000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1528.040000</v>
+        <v>1528.04</v>
       </c>
       <c r="BG3" s="1">
-        <v>-613.067000</v>
+        <v>-613.06700000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>22100.686913</v>
+        <v>22100.686913000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>6.139080</v>
+        <v>6.1390799999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1683.900000</v>
+        <v>1683.9</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1057.240000</v>
+        <v>-1057.24</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>22111.449603</v>
+        <v>22111.449603000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>6.142069</v>
+        <v>6.1420690000000002</v>
       </c>
       <c r="BP3" s="1">
-        <v>1980.950000</v>
+        <v>1980.95</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1824.860000</v>
+        <v>-1824.86</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>22121.845899</v>
       </c>
       <c r="BT3" s="1">
-        <v>6.144957</v>
+        <v>6.1449569999999998</v>
       </c>
       <c r="BU3" s="1">
-        <v>2371.900000</v>
+        <v>2371.9</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2711.380000</v>
+        <v>-2711.38</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>22132.555863</v>
+        <v>22132.555863000001</v>
       </c>
       <c r="BY3" s="1">
         <v>6.147932</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2857.440000</v>
+        <v>2857.44</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3672.610000</v>
+        <v>-3672.61</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>22143.594866</v>
+        <v>22143.594865999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>6.150999</v>
+        <v>6.1509989999999997</v>
       </c>
       <c r="CE3" s="1">
-        <v>4275.210000</v>
+        <v>4275.21</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5988.260000</v>
+        <v>-5988.26</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>21972.976506</v>
+        <v>21972.976505999999</v>
       </c>
       <c r="B4" s="1">
-        <v>6.103605</v>
+        <v>6.1036049999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1241.350000</v>
+        <v>1241.3499999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-307.039000</v>
+        <v>-307.03899999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>21983.366701</v>
+        <v>21983.366700999999</v>
       </c>
       <c r="G4" s="1">
-        <v>6.106491</v>
+        <v>6.1064910000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1266.430000</v>
+        <v>1266.43</v>
       </c>
       <c r="I4" s="1">
-        <v>-265.104000</v>
+        <v>-265.10399999999998</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>21994.190894</v>
+        <v>21994.190893999999</v>
       </c>
       <c r="L4" s="1">
-        <v>6.109497</v>
+        <v>6.1094970000000002</v>
       </c>
       <c r="M4" s="1">
-        <v>1301.540000</v>
+        <v>1301.54</v>
       </c>
       <c r="N4" s="1">
-        <v>-202.184000</v>
+        <v>-202.184</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>22004.703634</v>
+        <v>22004.703634000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>6.112418</v>
+        <v>6.1124179999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1313.290000</v>
+        <v>1313.29</v>
       </c>
       <c r="S4" s="1">
-        <v>-184.244000</v>
+        <v>-184.244</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>22015.247090</v>
+        <v>22015.247090000001</v>
       </c>
       <c r="V4" s="1">
-        <v>6.115346</v>
+        <v>6.1153459999999997</v>
       </c>
       <c r="W4" s="1">
-        <v>1326.110000</v>
+        <v>1326.11</v>
       </c>
       <c r="X4" s="1">
-        <v>-170.645000</v>
+        <v>-170.64500000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>22025.638277</v>
+        <v>22025.638276999998</v>
       </c>
       <c r="AA4" s="1">
         <v>6.118233</v>
       </c>
       <c r="AB4" s="1">
-        <v>1343.090000</v>
+        <v>1343.09</v>
       </c>
       <c r="AC4" s="1">
-        <v>-168.660000</v>
+        <v>-168.66</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>22036.148966</v>
+        <v>22036.148966000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>6.121152</v>
+        <v>6.1211520000000004</v>
       </c>
       <c r="AG4" s="1">
-        <v>1355.910000</v>
+        <v>1355.91</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.414000</v>
+        <v>-178.41399999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>22046.547593</v>
+        <v>22046.547592999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>6.124041</v>
+        <v>6.1240410000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1376.410000</v>
+        <v>1376.41</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.389000</v>
+        <v>-208.38900000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>22057.137178</v>
+        <v>22057.137178000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>6.126983</v>
+        <v>6.1269830000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1398.030000</v>
+        <v>1398.03</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.409000</v>
+        <v>-252.40899999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>22068.593307</v>
+        <v>22068.593306999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>6.130165</v>
+        <v>6.1301649999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1422.650000</v>
+        <v>1422.65</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.470000</v>
+        <v>-312.47000000000003</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>22079.706142</v>
+        <v>22079.706141999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>6.133252</v>
+        <v>6.1332519999999997</v>
       </c>
       <c r="BA4" s="1">
-        <v>1442.140000</v>
+        <v>1442.14</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.666000</v>
+        <v>-364.666</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>22090.337390</v>
+        <v>22090.337390000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>6.136205</v>
+        <v>6.1362050000000004</v>
       </c>
       <c r="BF4" s="1">
-        <v>1528.060000</v>
+        <v>1528.06</v>
       </c>
       <c r="BG4" s="1">
-        <v>-613.069000</v>
+        <v>-613.06899999999996</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>22101.070817</v>
       </c>
       <c r="BJ4" s="1">
-        <v>6.139186</v>
+        <v>6.1391859999999996</v>
       </c>
       <c r="BK4" s="1">
-        <v>1683.890000</v>
+        <v>1683.89</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1057.280000</v>
+        <v>-1057.28</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>22111.872226</v>
       </c>
       <c r="BO4" s="1">
-        <v>6.142187</v>
+        <v>6.1421869999999998</v>
       </c>
       <c r="BP4" s="1">
-        <v>1980.790000</v>
+        <v>1980.79</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1824.960000</v>
+        <v>-1824.96</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>22122.278266</v>
+        <v>22122.278266000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>6.145077</v>
+        <v>6.1450769999999997</v>
       </c>
       <c r="BU4" s="1">
-        <v>2371.610000</v>
+        <v>2371.61</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2711.790000</v>
+        <v>-2711.79</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>22133.002758</v>
+        <v>22133.002757999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>6.148056</v>
+        <v>6.1480560000000004</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2858.530000</v>
+        <v>2858.53</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3672.580000</v>
+        <v>-3672.58</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>22144.122567</v>
+        <v>22144.122566999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>6.151145</v>
+        <v>6.1511449999999996</v>
       </c>
       <c r="CE4" s="1">
-        <v>4291.160000</v>
+        <v>4291.16</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5993.920000</v>
+        <v>-5993.92</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>21973.660027</v>
+        <v>21973.660027000002</v>
       </c>
       <c r="B5" s="1">
-        <v>6.103794</v>
+        <v>6.1037939999999997</v>
       </c>
       <c r="C5" s="1">
-        <v>1241.070000</v>
+        <v>1241.07</v>
       </c>
       <c r="D5" s="1">
-        <v>-307.298000</v>
+        <v>-307.298</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>21984.055147</v>
+        <v>21984.055146999999</v>
       </c>
       <c r="G5" s="1">
-        <v>6.106682</v>
+        <v>6.1066820000000002</v>
       </c>
       <c r="H5" s="1">
-        <v>1266.450000</v>
+        <v>1266.45</v>
       </c>
       <c r="I5" s="1">
-        <v>-265.430000</v>
+        <v>-265.43</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>21994.538126</v>
+        <v>21994.538125999999</v>
       </c>
       <c r="L5" s="1">
-        <v>6.109594</v>
+        <v>6.1095940000000004</v>
       </c>
       <c r="M5" s="1">
-        <v>1301.720000</v>
+        <v>1301.72</v>
       </c>
       <c r="N5" s="1">
-        <v>-202.519000</v>
+        <v>-202.51900000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>22005.051791</v>
+        <v>22005.051791000002</v>
       </c>
       <c r="Q5" s="1">
         <v>6.112514</v>
       </c>
       <c r="R5" s="1">
-        <v>1313.260000</v>
+        <v>1313.26</v>
       </c>
       <c r="S5" s="1">
-        <v>-184.279000</v>
+        <v>-184.279</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>22015.589298</v>
+        <v>22015.589297999999</v>
       </c>
       <c r="V5" s="1">
-        <v>6.115441</v>
+        <v>6.1154409999999997</v>
       </c>
       <c r="W5" s="1">
-        <v>1326.050000</v>
+        <v>1326.05</v>
       </c>
       <c r="X5" s="1">
-        <v>-170.798000</v>
+        <v>-170.798</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>22026.287808</v>
+        <v>22026.287808000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>6.118413</v>
+        <v>6.1184130000000003</v>
       </c>
       <c r="AB5" s="1">
-        <v>1343.200000</v>
+        <v>1343.2</v>
       </c>
       <c r="AC5" s="1">
-        <v>-168.665000</v>
+        <v>-168.66499999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>22036.783845</v>
+        <v>22036.783845000002</v>
       </c>
       <c r="AF5" s="1">
-        <v>6.121329</v>
+        <v>6.1213290000000002</v>
       </c>
       <c r="AG5" s="1">
-        <v>1355.840000</v>
+        <v>1355.84</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.386000</v>
+        <v>-178.386</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>22046.934968</v>
+        <v>22046.934968000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>6.124149</v>
+        <v>6.1241490000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>1376.400000</v>
+        <v>1376.4</v>
       </c>
       <c r="AM5" s="1">
-        <v>-208.402000</v>
+        <v>-208.40199999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>22057.638180</v>
+        <v>22057.638180000002</v>
       </c>
       <c r="AP5" s="1">
         <v>6.127122</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1398.030000</v>
+        <v>1398.03</v>
       </c>
       <c r="AR5" s="1">
-        <v>-252.372000</v>
+        <v>-252.37200000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>22068.957374</v>
+        <v>22068.957374000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>6.130266</v>
+        <v>6.1302659999999998</v>
       </c>
       <c r="AV5" s="1">
-        <v>1422.720000</v>
+        <v>1422.72</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.447000</v>
+        <v>-312.447</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>22080.065244</v>
+        <v>22080.065244000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>6.133351</v>
+        <v>6.1333510000000002</v>
       </c>
       <c r="BA5" s="1">
-        <v>1442.100000</v>
+        <v>1442.1</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.629000</v>
+        <v>-364.62900000000002</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>22090.701486</v>
+        <v>22090.701486000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>6.136306</v>
+        <v>6.1363060000000003</v>
       </c>
       <c r="BF5" s="1">
-        <v>1528.030000</v>
+        <v>1528.03</v>
       </c>
       <c r="BG5" s="1">
-        <v>-613.056000</v>
+        <v>-613.05600000000004</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>22101.490928</v>
+        <v>22101.490927999999</v>
       </c>
       <c r="BJ5" s="1">
         <v>6.139303</v>
       </c>
       <c r="BK5" s="1">
-        <v>1683.890000</v>
+        <v>1683.89</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1057.220000</v>
+        <v>-1057.22</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>22112.266017</v>
+        <v>22112.266017000002</v>
       </c>
       <c r="BO5" s="1">
         <v>6.142296</v>
       </c>
       <c r="BP5" s="1">
-        <v>1980.810000</v>
+        <v>1980.81</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1824.870000</v>
+        <v>-1824.87</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>22122.705317</v>
       </c>
       <c r="BT5" s="1">
-        <v>6.145196</v>
+        <v>6.1451960000000003</v>
       </c>
       <c r="BU5" s="1">
-        <v>2371.270000</v>
+        <v>2371.27</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2711.750000</v>
+        <v>-2711.75</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>22133.435767</v>
+        <v>22133.435766999999</v>
       </c>
       <c r="BY5" s="1">
-        <v>6.148177</v>
+        <v>6.1481769999999996</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2858.280000</v>
+        <v>2858.28</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3671.930000</v>
+        <v>-3671.93</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>22144.642375</v>
+        <v>22144.642374999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>6.151290</v>
+        <v>6.1512900000000004</v>
       </c>
       <c r="CE5" s="1">
-        <v>4286.640000</v>
+        <v>4286.6400000000003</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5973.480000</v>
+        <v>-5973.48</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>21974.007192</v>
+        <v>21974.007192000001</v>
       </c>
       <c r="B6" s="1">
         <v>6.103891</v>
       </c>
       <c r="C6" s="1">
-        <v>1241.310000</v>
+        <v>1241.31</v>
       </c>
       <c r="D6" s="1">
-        <v>-307.486000</v>
+        <v>-307.48599999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>21984.403340</v>
+        <v>21984.403340000001</v>
       </c>
       <c r="G6" s="1">
-        <v>6.106779</v>
+        <v>6.1067790000000004</v>
       </c>
       <c r="H6" s="1">
-        <v>1267.510000</v>
+        <v>1267.51</v>
       </c>
       <c r="I6" s="1">
-        <v>-264.820000</v>
+        <v>-264.82</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>21994.881325</v>
+        <v>21994.881324999998</v>
       </c>
       <c r="L6" s="1">
-        <v>6.109689</v>
+        <v>6.1096890000000004</v>
       </c>
       <c r="M6" s="1">
-        <v>1301.440000</v>
+        <v>1301.44</v>
       </c>
       <c r="N6" s="1">
-        <v>-202.626000</v>
+        <v>-202.626</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>22005.399984</v>
       </c>
       <c r="Q6" s="1">
-        <v>6.112611</v>
+        <v>6.1126110000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>1313.220000</v>
+        <v>1313.22</v>
       </c>
       <c r="S6" s="1">
-        <v>-184.226000</v>
+        <v>-184.226</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>22016.240576</v>
       </c>
       <c r="V6" s="1">
-        <v>6.115622</v>
+        <v>6.1156220000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1326.080000</v>
+        <v>1326.08</v>
       </c>
       <c r="X6" s="1">
-        <v>-170.771000</v>
+        <v>-170.77099999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>22026.683811</v>
+        <v>22026.683810999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>6.118523</v>
+        <v>6.1185229999999997</v>
       </c>
       <c r="AB6" s="1">
-        <v>1343.090000</v>
+        <v>1343.09</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.697000</v>
+        <v>-168.697</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>22037.175686</v>
+        <v>22037.175685999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>6.121438</v>
+        <v>6.1214380000000004</v>
       </c>
       <c r="AG6" s="1">
-        <v>1355.890000</v>
+        <v>1355.89</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.356000</v>
+        <v>-178.35599999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>22047.284647</v>
       </c>
       <c r="AK6" s="1">
-        <v>6.124246</v>
+        <v>6.1242460000000003</v>
       </c>
       <c r="AL6" s="1">
-        <v>1376.400000</v>
+        <v>1376.4</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.376000</v>
+        <v>-208.376</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>22057.930779</v>
+        <v>22057.930778999998</v>
       </c>
       <c r="AP6" s="1">
-        <v>6.127203</v>
+        <v>6.1272029999999997</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1398.040000</v>
+        <v>1398.04</v>
       </c>
       <c r="AR6" s="1">
-        <v>-252.382000</v>
+        <v>-252.38200000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>22069.320908</v>
+        <v>22069.320908000002</v>
       </c>
       <c r="AU6" s="1">
-        <v>6.130367</v>
+        <v>6.1303669999999997</v>
       </c>
       <c r="AV6" s="1">
-        <v>1422.680000</v>
+        <v>1422.68</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.439000</v>
+        <v>-312.43900000000002</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>22080.481388</v>
       </c>
       <c r="AZ6" s="1">
-        <v>6.133467</v>
+        <v>6.1334669999999996</v>
       </c>
       <c r="BA6" s="1">
-        <v>1442.120000</v>
+        <v>1442.12</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.647000</v>
+        <v>-364.64699999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>22091.110190</v>
+        <v>22091.110189999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>6.136419</v>
+        <v>6.1364190000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1528.040000</v>
+        <v>1528.04</v>
       </c>
       <c r="BG6" s="1">
-        <v>-613.088000</v>
+        <v>-613.08799999999997</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>22101.835648</v>
       </c>
       <c r="BJ6" s="1">
-        <v>6.139399</v>
+        <v>6.1393990000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1683.870000</v>
+        <v>1683.87</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1057.270000</v>
+        <v>-1057.27</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>22112.664801</v>
+        <v>22112.664800999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>6.142407</v>
+        <v>6.1424070000000004</v>
       </c>
       <c r="BP6" s="1">
-        <v>1980.830000</v>
+        <v>1980.83</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1824.950000</v>
+        <v>-1824.95</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>22123.117524</v>
+        <v>22123.117524000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>6.145310</v>
+        <v>6.1453100000000003</v>
       </c>
       <c r="BU6" s="1">
-        <v>2370.660000</v>
+        <v>2370.66</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2711.860000</v>
+        <v>-2711.86</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>22133.856869</v>
+        <v>22133.856868999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>6.148294</v>
+        <v>6.1482939999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2857.910000</v>
+        <v>2857.91</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3671.460000</v>
+        <v>-3671.46</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>22145.241542</v>
       </c>
       <c r="CD6" s="1">
-        <v>6.151456</v>
+        <v>6.1514559999999996</v>
       </c>
       <c r="CE6" s="1">
-        <v>4293.820000</v>
+        <v>4293.82</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5991.870000</v>
+        <v>-5991.87</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>21974.345960</v>
+        <v>21974.345959999999</v>
       </c>
       <c r="B7" s="1">
-        <v>6.103985</v>
+        <v>6.1039849999999998</v>
       </c>
       <c r="C7" s="1">
-        <v>1241.710000</v>
+        <v>1241.71</v>
       </c>
       <c r="D7" s="1">
-        <v>-307.523000</v>
+        <v>-307.52300000000002</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>21984.746570</v>
+        <v>21984.746569999999</v>
       </c>
       <c r="G7" s="1">
-        <v>6.106874</v>
+        <v>6.1068740000000004</v>
       </c>
       <c r="H7" s="1">
-        <v>1266.840000</v>
+        <v>1266.8399999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-265.031000</v>
+        <v>-265.03100000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>21995.533564</v>
+        <v>21995.533564000001</v>
       </c>
       <c r="L7" s="1">
-        <v>6.109870</v>
+        <v>6.1098699999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1301.840000</v>
+        <v>1301.8399999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-202.814000</v>
+        <v>-202.81399999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>22006.023492</v>
       </c>
       <c r="Q7" s="1">
-        <v>6.112784</v>
+        <v>6.1127840000000004</v>
       </c>
       <c r="R7" s="1">
-        <v>1313.250000</v>
+        <v>1313.25</v>
       </c>
       <c r="S7" s="1">
-        <v>-184.153000</v>
+        <v>-184.15299999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>22016.618000</v>
+        <v>22016.617999999999</v>
       </c>
       <c r="V7" s="1">
-        <v>6.115727</v>
+        <v>6.1157269999999997</v>
       </c>
       <c r="W7" s="1">
-        <v>1326.180000</v>
+        <v>1326.18</v>
       </c>
       <c r="X7" s="1">
-        <v>-170.667000</v>
+        <v>-170.667</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>22027.034482</v>
+        <v>22027.034481999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>6.118621</v>
+        <v>6.1186210000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1343.120000</v>
+        <v>1343.12</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.788000</v>
+        <v>-168.78800000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>22037.520933</v>
       </c>
       <c r="AF7" s="1">
-        <v>6.121534</v>
+        <v>6.1215339999999996</v>
       </c>
       <c r="AG7" s="1">
-        <v>1355.860000</v>
+        <v>1355.86</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.402000</v>
+        <v>-178.40199999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>22047.631352</v>
       </c>
       <c r="AK7" s="1">
-        <v>6.124342</v>
+        <v>6.1243420000000004</v>
       </c>
       <c r="AL7" s="1">
-        <v>1376.420000</v>
+        <v>1376.42</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.414000</v>
+        <v>-208.41399999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>22058.281946</v>
+        <v>22058.281945999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>6.127301</v>
+        <v>6.1273010000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1398.030000</v>
+        <v>1398.03</v>
       </c>
       <c r="AR7" s="1">
-        <v>-252.383000</v>
+        <v>-252.38300000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>22069.733802</v>
+        <v>22069.733801999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>6.130482</v>
+        <v>6.1304819999999998</v>
       </c>
       <c r="AV7" s="1">
-        <v>1422.670000</v>
+        <v>1422.67</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.466000</v>
+        <v>-312.46600000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>22080.782792</v>
+        <v>22080.782792000002</v>
       </c>
       <c r="AZ7" s="1">
-        <v>6.133551</v>
+        <v>6.1335509999999998</v>
       </c>
       <c r="BA7" s="1">
-        <v>1442.120000</v>
+        <v>1442.12</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.633000</v>
+        <v>-364.63299999999998</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>22091.424621</v>
+        <v>22091.424620999998</v>
       </c>
       <c r="BE7" s="1">
-        <v>6.136507</v>
+        <v>6.1365069999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1528.080000</v>
+        <v>1528.08</v>
       </c>
       <c r="BG7" s="1">
-        <v>-613.088000</v>
+        <v>-613.08799999999997</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>22102.211616</v>
+        <v>22102.211616000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>6.139503</v>
+        <v>6.1395030000000004</v>
       </c>
       <c r="BK7" s="1">
-        <v>1683.910000</v>
+        <v>1683.91</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1057.190000</v>
+        <v>-1057.19</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>22113.083953</v>
+        <v>22113.083953000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>6.142523</v>
+        <v>6.1425229999999997</v>
       </c>
       <c r="BP7" s="1">
-        <v>1980.660000</v>
+        <v>1980.66</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1824.800000</v>
+        <v>-1824.8</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>22123.548514</v>
+        <v>22123.548513999998</v>
       </c>
       <c r="BT7" s="1">
-        <v>6.145430</v>
+        <v>6.1454300000000002</v>
       </c>
       <c r="BU7" s="1">
-        <v>2370.300000</v>
+        <v>2370.3000000000002</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2711.320000</v>
+        <v>-2711.32</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>22134.279460</v>
+        <v>22134.279460000002</v>
       </c>
       <c r="BY7" s="1">
-        <v>6.148411</v>
+        <v>6.1484110000000003</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2857.300000</v>
+        <v>2857.3</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3671.880000</v>
+        <v>-3671.88</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>22145.721205</v>
+        <v>22145.721205000002</v>
       </c>
       <c r="CD7" s="1">
-        <v>6.151589</v>
+        <v>6.1515890000000004</v>
       </c>
       <c r="CE7" s="1">
-        <v>4292.760000</v>
+        <v>4292.76</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5994.550000</v>
+        <v>-5994.55</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>21974.994231</v>
+        <v>21974.994231000001</v>
       </c>
       <c r="B8" s="1">
-        <v>6.104165</v>
+        <v>6.1041650000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1241.420000</v>
+        <v>1241.42</v>
       </c>
       <c r="D8" s="1">
-        <v>-307.115000</v>
+        <v>-307.11500000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>21985.392362</v>
+        <v>21985.392361999999</v>
       </c>
       <c r="G8" s="1">
-        <v>6.107053</v>
+        <v>6.1070529999999996</v>
       </c>
       <c r="H8" s="1">
-        <v>1266.910000</v>
+        <v>1266.9100000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-265.086000</v>
+        <v>-265.08600000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>21995.920941</v>
       </c>
       <c r="L8" s="1">
-        <v>6.109978</v>
+        <v>6.1099779999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1301.520000</v>
+        <v>1301.52</v>
       </c>
       <c r="N8" s="1">
-        <v>-202.380000</v>
+        <v>-202.38</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>22006.446073</v>
+        <v>22006.446072999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>6.112902</v>
+        <v>6.1129020000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1313.330000</v>
+        <v>1313.33</v>
       </c>
       <c r="S8" s="1">
-        <v>-184.198000</v>
+        <v>-184.19800000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>22016.962224</v>
+        <v>22016.962223999999</v>
       </c>
       <c r="V8" s="1">
-        <v>6.115823</v>
+        <v>6.1158229999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>1326.190000</v>
+        <v>1326.19</v>
       </c>
       <c r="X8" s="1">
-        <v>-170.684000</v>
+        <v>-170.684</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>22027.383171</v>
+        <v>22027.383171000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>6.118718</v>
+        <v>6.1187180000000003</v>
       </c>
       <c r="AB8" s="1">
-        <v>1343.250000</v>
+        <v>1343.25</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.696000</v>
+        <v>-168.696</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>22037.867108</v>
+        <v>22037.867107999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>6.121630</v>
+        <v>6.1216299999999997</v>
       </c>
       <c r="AG8" s="1">
-        <v>1355.890000</v>
+        <v>1355.89</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.360000</v>
+        <v>-178.36</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>22048.055462</v>
       </c>
       <c r="AK8" s="1">
-        <v>6.124460</v>
+        <v>6.12446</v>
       </c>
       <c r="AL8" s="1">
-        <v>1376.400000</v>
+        <v>1376.4</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.398000</v>
+        <v>-208.398</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>22059.014040</v>
+        <v>22059.014039999998</v>
       </c>
       <c r="AP8" s="1">
-        <v>6.127504</v>
+        <v>6.1275040000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1398.050000</v>
+        <v>1398.05</v>
       </c>
       <c r="AR8" s="1">
-        <v>-252.371000</v>
+        <v>-252.37100000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>22070.053001</v>
       </c>
       <c r="AU8" s="1">
-        <v>6.130570</v>
+        <v>6.1305699999999996</v>
       </c>
       <c r="AV8" s="1">
-        <v>1422.700000</v>
+        <v>1422.7</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.470000</v>
+        <v>-312.47000000000003</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>22081.141596</v>
+        <v>22081.141596000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>6.133650</v>
+        <v>6.1336500000000003</v>
       </c>
       <c r="BA8" s="1">
-        <v>1442.130000</v>
+        <v>1442.13</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.651000</v>
+        <v>-364.65100000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>22091.787693</v>
+        <v>22091.787692999998</v>
       </c>
       <c r="BE8" s="1">
-        <v>6.136608</v>
+        <v>6.1366079999999998</v>
       </c>
       <c r="BF8" s="1">
-        <v>1528.070000</v>
+        <v>1528.07</v>
       </c>
       <c r="BG8" s="1">
-        <v>-613.060000</v>
+        <v>-613.05999999999995</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>22102.590094</v>
+        <v>22102.590093999999</v>
       </c>
       <c r="BJ8" s="1">
         <v>6.139608</v>
       </c>
       <c r="BK8" s="1">
-        <v>1683.800000</v>
+        <v>1683.8</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1057.180000</v>
+        <v>-1057.18</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>22113.500561</v>
+        <v>22113.500561000001</v>
       </c>
       <c r="BO8" s="1">
         <v>6.142639</v>
       </c>
       <c r="BP8" s="1">
-        <v>1980.730000</v>
+        <v>1980.73</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1824.920000</v>
+        <v>-1824.92</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>22123.976594</v>
       </c>
       <c r="BT8" s="1">
-        <v>6.145549</v>
+        <v>6.1455489999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>2369.770000</v>
+        <v>2369.77</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2711.170000</v>
+        <v>-2711.17</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>22134.706036</v>
       </c>
       <c r="BY8" s="1">
-        <v>6.148529</v>
+        <v>6.1485289999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2858.080000</v>
+        <v>2858.08</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3672.460000</v>
+        <v>-3672.46</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>22146.241972</v>
       </c>
       <c r="CD8" s="1">
-        <v>6.151734</v>
+        <v>6.1517340000000003</v>
       </c>
       <c r="CE8" s="1">
-        <v>4293.660000</v>
+        <v>4293.66</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5977.190000</v>
+        <v>-5977.19</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>21975.373176</v>
+        <v>21975.373176000001</v>
       </c>
       <c r="B9" s="1">
-        <v>6.104270</v>
+        <v>6.1042699999999996</v>
       </c>
       <c r="C9" s="1">
-        <v>1241.730000</v>
+        <v>1241.73</v>
       </c>
       <c r="D9" s="1">
-        <v>-307.593000</v>
+        <v>-307.59300000000002</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>21985.779257</v>
+        <v>21985.779256999998</v>
       </c>
       <c r="G9" s="1">
-        <v>6.107161</v>
+        <v>6.1071609999999996</v>
       </c>
       <c r="H9" s="1">
-        <v>1266.240000</v>
+        <v>1266.24</v>
       </c>
       <c r="I9" s="1">
-        <v>-265.272000</v>
+        <v>-265.27199999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>21996.266156</v>
+        <v>21996.266156000002</v>
       </c>
       <c r="L9" s="1">
         <v>6.110074</v>
       </c>
       <c r="M9" s="1">
-        <v>1301.500000</v>
+        <v>1301.5</v>
       </c>
       <c r="N9" s="1">
-        <v>-202.444000</v>
+        <v>-202.44399999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>22006.794733</v>
+        <v>22006.794732999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>6.112999</v>
+        <v>6.1129990000000003</v>
       </c>
       <c r="R9" s="1">
-        <v>1313.270000</v>
+        <v>1313.27</v>
       </c>
       <c r="S9" s="1">
-        <v>-184.247000</v>
+        <v>-184.24700000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>22017.305232</v>
+        <v>22017.305231999999</v>
       </c>
       <c r="V9" s="1">
-        <v>6.115918</v>
+        <v>6.1159179999999997</v>
       </c>
       <c r="W9" s="1">
-        <v>1326.050000</v>
+        <v>1326.05</v>
       </c>
       <c r="X9" s="1">
-        <v>-170.718000</v>
+        <v>-170.71799999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>22027.795345</v>
+        <v>22027.795344999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>6.118832</v>
+        <v>6.1188320000000003</v>
       </c>
       <c r="AB9" s="1">
-        <v>1343.190000</v>
+        <v>1343.19</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.823000</v>
+        <v>-168.82300000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>22038.279811</v>
       </c>
       <c r="AF9" s="1">
-        <v>6.121744</v>
+        <v>6.1217439999999996</v>
       </c>
       <c r="AG9" s="1">
-        <v>1355.880000</v>
+        <v>1355.88</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.318000</v>
+        <v>-178.31800000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>22048.333686</v>
+        <v>22048.333686000002</v>
       </c>
       <c r="AK9" s="1">
-        <v>6.124537</v>
+        <v>6.1245370000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1376.420000</v>
+        <v>1376.42</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.382000</v>
+        <v>-208.38200000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>22059.373672</v>
+        <v>22059.373672000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>6.127604</v>
+        <v>6.1276039999999998</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1398.070000</v>
+        <v>1398.07</v>
       </c>
       <c r="AR9" s="1">
-        <v>-252.380000</v>
+        <v>-252.38</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>22070.416073</v>
       </c>
       <c r="AU9" s="1">
-        <v>6.130671</v>
+        <v>6.1306710000000004</v>
       </c>
       <c r="AV9" s="1">
-        <v>1422.680000</v>
+        <v>1422.68</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.436000</v>
+        <v>-312.43599999999998</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>22081.502156</v>
+        <v>22081.502155999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>6.133751</v>
+        <v>6.1337510000000002</v>
       </c>
       <c r="BA9" s="1">
-        <v>1442.120000</v>
+        <v>1442.12</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.612000</v>
+        <v>-364.61200000000002</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>22092.145309</v>
       </c>
       <c r="BE9" s="1">
-        <v>6.136707</v>
+        <v>6.1367070000000004</v>
       </c>
       <c r="BF9" s="1">
-        <v>1528.030000</v>
+        <v>1528.03</v>
       </c>
       <c r="BG9" s="1">
-        <v>-613.069000</v>
+        <v>-613.06899999999996</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>22103.358861</v>
+        <v>22103.358861000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>6.139822</v>
+        <v>6.1398219999999997</v>
       </c>
       <c r="BK9" s="1">
-        <v>1683.890000</v>
+        <v>1683.89</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1057.200000</v>
+        <v>-1057.2</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>22113.903311</v>
+        <v>22113.903310999998</v>
       </c>
       <c r="BO9" s="1">
-        <v>6.142751</v>
+        <v>6.1427509999999996</v>
       </c>
       <c r="BP9" s="1">
-        <v>1980.710000</v>
+        <v>1980.71</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1824.890000</v>
+        <v>-1824.89</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>22124.386786</v>
+        <v>22124.386785999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>6.145663</v>
+        <v>6.1456629999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>2369.490000</v>
+        <v>2369.4899999999998</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2711.070000</v>
+        <v>-2711.07</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>22135.119219</v>
@@ -2505,4399 +2921,4400 @@
         <v>6.148644</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2857.740000</v>
+        <v>2857.74</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3671.570000</v>
+        <v>-3671.57</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>22147.070825</v>
+        <v>22147.070824999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>6.151964</v>
+        <v>6.1519640000000004</v>
       </c>
       <c r="CE9" s="1">
-        <v>4276.630000</v>
+        <v>4276.63</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5978.500000</v>
+        <v>-5978.5</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>21975.715910</v>
+        <v>21975.715909999999</v>
       </c>
       <c r="B10" s="1">
-        <v>6.104366</v>
+        <v>6.1043659999999997</v>
       </c>
       <c r="C10" s="1">
-        <v>1241.340000</v>
+        <v>1241.3399999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-307.241000</v>
+        <v>-307.24099999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>21986.122969</v>
       </c>
       <c r="G10" s="1">
-        <v>6.107256</v>
+        <v>6.1072559999999996</v>
       </c>
       <c r="H10" s="1">
-        <v>1266.290000</v>
+        <v>1266.29</v>
       </c>
       <c r="I10" s="1">
-        <v>-265.360000</v>
+        <v>-265.36</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>21996.611866</v>
+        <v>21996.611865999999</v>
       </c>
       <c r="L10" s="1">
-        <v>6.110170</v>
+        <v>6.1101700000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1301.430000</v>
+        <v>1301.43</v>
       </c>
       <c r="N10" s="1">
-        <v>-202.545000</v>
+        <v>-202.54499999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>22007.217325</v>
+        <v>22007.217325000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>6.113116</v>
+        <v>6.1131159999999998</v>
       </c>
       <c r="R10" s="1">
-        <v>1313.290000</v>
+        <v>1313.29</v>
       </c>
       <c r="S10" s="1">
-        <v>-184.241000</v>
+        <v>-184.24100000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>22017.720111</v>
+        <v>22017.720110999999</v>
       </c>
       <c r="V10" s="1">
-        <v>6.116033</v>
+        <v>6.1160329999999998</v>
       </c>
       <c r="W10" s="1">
-        <v>1326.150000</v>
+        <v>1326.15</v>
       </c>
       <c r="X10" s="1">
-        <v>-170.577000</v>
+        <v>-170.577</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>22028.085011</v>
+        <v>22028.085010999999</v>
       </c>
       <c r="AA10" s="1">
         <v>6.118913</v>
       </c>
       <c r="AB10" s="1">
-        <v>1343.090000</v>
+        <v>1343.09</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.585000</v>
+        <v>-168.58500000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>22038.579363</v>
+        <v>22038.579363000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>6.121828</v>
+        <v>6.1218279999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>1355.950000</v>
+        <v>1355.95</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.388000</v>
+        <v>-178.38800000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>22048.683862</v>
+        <v>22048.683862000002</v>
       </c>
       <c r="AK10" s="1">
-        <v>6.124634</v>
+        <v>6.1246340000000004</v>
       </c>
       <c r="AL10" s="1">
-        <v>1376.430000</v>
+        <v>1376.43</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.395000</v>
+        <v>-208.39500000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>22059.734727</v>
+        <v>22059.734726999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>6.127704</v>
+        <v>6.1277039999999996</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1398.050000</v>
+        <v>1398.05</v>
       </c>
       <c r="AR10" s="1">
-        <v>-252.370000</v>
+        <v>-252.37</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>22070.782616</v>
       </c>
       <c r="AU10" s="1">
-        <v>6.130773</v>
+        <v>6.1307729999999996</v>
       </c>
       <c r="AV10" s="1">
-        <v>1422.720000</v>
+        <v>1422.72</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.459000</v>
+        <v>-312.459</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>22082.216922</v>
       </c>
       <c r="AZ10" s="1">
-        <v>6.133949</v>
+        <v>6.1339490000000003</v>
       </c>
       <c r="BA10" s="1">
-        <v>1442.160000</v>
+        <v>1442.16</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.646000</v>
+        <v>-364.64600000000002</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>22092.870993</v>
       </c>
       <c r="BE10" s="1">
-        <v>6.136909</v>
+        <v>6.1369090000000002</v>
       </c>
       <c r="BF10" s="1">
-        <v>1528.080000</v>
+        <v>1528.08</v>
       </c>
       <c r="BG10" s="1">
-        <v>-613.055000</v>
+        <v>-613.05499999999995</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>22103.734828</v>
+        <v>22103.734828000001</v>
       </c>
       <c r="BJ10" s="1">
         <v>6.139926</v>
       </c>
       <c r="BK10" s="1">
-        <v>1683.800000</v>
+        <v>1683.8</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1057.190000</v>
+        <v>-1057.19</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>22114.301631</v>
+        <v>22114.301630999998</v>
       </c>
       <c r="BO10" s="1">
         <v>6.142862</v>
       </c>
       <c r="BP10" s="1">
-        <v>1980.660000</v>
+        <v>1980.66</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1824.960000</v>
+        <v>-1824.96</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>22124.818801</v>
+        <v>22124.818801000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>6.145783</v>
+        <v>6.1457829999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>2369.050000</v>
+        <v>2369.0500000000002</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2710.630000</v>
+        <v>-2710.63</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>22135.888483</v>
+        <v>22135.888482999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>6.148858</v>
+        <v>6.1488579999999997</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2857.170000</v>
+        <v>2857.17</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3672.630000</v>
+        <v>-3672.63</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>22147.276879</v>
+        <v>22147.276879000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>6.152021</v>
+        <v>6.1520210000000004</v>
       </c>
       <c r="CE10" s="1">
-        <v>4280.960000</v>
+        <v>4280.96</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5994.430000</v>
+        <v>-5994.43</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>21976.055205</v>
+        <v>21976.055205000001</v>
       </c>
       <c r="B11" s="1">
-        <v>6.104460</v>
+        <v>6.1044600000000004</v>
       </c>
       <c r="C11" s="1">
-        <v>1241.520000</v>
+        <v>1241.52</v>
       </c>
       <c r="D11" s="1">
-        <v>-307.625000</v>
+        <v>-307.625</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>21986.469177</v>
+        <v>21986.469176999999</v>
       </c>
       <c r="G11" s="1">
-        <v>6.107353</v>
+        <v>6.1073529999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>1266.210000</v>
+        <v>1266.21</v>
       </c>
       <c r="I11" s="1">
-        <v>-264.102000</v>
+        <v>-264.10199999999998</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>21997.028506</v>
+        <v>21997.028505999999</v>
       </c>
       <c r="L11" s="1">
-        <v>6.110286</v>
+        <v>6.1102860000000003</v>
       </c>
       <c r="M11" s="1">
-        <v>1301.590000</v>
+        <v>1301.5899999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-202.264000</v>
+        <v>-202.26400000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>22007.491645</v>
+        <v>22007.491644999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>6.113192</v>
+        <v>6.1131919999999997</v>
       </c>
       <c r="R11" s="1">
-        <v>1313.220000</v>
+        <v>1313.22</v>
       </c>
       <c r="S11" s="1">
-        <v>-184.258000</v>
+        <v>-184.25800000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>22018.017214</v>
       </c>
       <c r="V11" s="1">
-        <v>6.116116</v>
+        <v>6.1161159999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1325.980000</v>
+        <v>1325.98</v>
       </c>
       <c r="X11" s="1">
-        <v>-170.700000</v>
+        <v>-170.7</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>22028.437466</v>
+        <v>22028.437465999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>6.119010</v>
+        <v>6.1190100000000003</v>
       </c>
       <c r="AB11" s="1">
-        <v>1343.110000</v>
+        <v>1343.11</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.601000</v>
+        <v>-168.601</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>22038.924083</v>
+        <v>22038.924083000002</v>
       </c>
       <c r="AF11" s="1">
-        <v>6.121923</v>
+        <v>6.1219229999999998</v>
       </c>
       <c r="AG11" s="1">
-        <v>1355.950000</v>
+        <v>1355.95</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.446000</v>
+        <v>-178.446</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>22049.031557</v>
+        <v>22049.031556999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>6.124731</v>
+        <v>6.1247309999999997</v>
       </c>
       <c r="AL11" s="1">
-        <v>1376.410000</v>
+        <v>1376.41</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.423000</v>
+        <v>-208.423</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>22060.454918</v>
+        <v>22060.454917999999</v>
       </c>
       <c r="AP11" s="1">
         <v>6.127904</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1398.040000</v>
+        <v>1398.04</v>
       </c>
       <c r="AR11" s="1">
-        <v>-252.297000</v>
+        <v>-252.297</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>22071.508296</v>
       </c>
       <c r="AU11" s="1">
-        <v>6.130975</v>
+        <v>6.1309750000000003</v>
       </c>
       <c r="AV11" s="1">
-        <v>1422.720000</v>
+        <v>1422.72</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.457000</v>
+        <v>-312.45699999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>22082.576986</v>
       </c>
       <c r="AZ11" s="1">
-        <v>6.134049</v>
+        <v>6.1340490000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1442.120000</v>
+        <v>1442.12</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.630000</v>
+        <v>-364.63</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>22093.286603</v>
       </c>
       <c r="BE11" s="1">
-        <v>6.137024</v>
+        <v>6.1370240000000003</v>
       </c>
       <c r="BF11" s="1">
-        <v>1528.020000</v>
+        <v>1528.02</v>
       </c>
       <c r="BG11" s="1">
-        <v>-613.055000</v>
+        <v>-613.05499999999995</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>22104.110301</v>
+        <v>22104.110301000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>6.140031</v>
+        <v>6.1400309999999996</v>
       </c>
       <c r="BK11" s="1">
-        <v>1683.890000</v>
+        <v>1683.89</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1057.160000</v>
+        <v>-1057.1600000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>22115.021817</v>
+        <v>22115.021817000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>6.143062</v>
+        <v>6.1430619999999996</v>
       </c>
       <c r="BP11" s="1">
-        <v>1980.660000</v>
+        <v>1980.66</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1824.850000</v>
+        <v>-1824.85</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>22125.551360</v>
+        <v>22125.551360000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>6.145986</v>
+        <v>6.1459859999999997</v>
       </c>
       <c r="BU11" s="1">
-        <v>2368.750000</v>
+        <v>2368.75</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2710.250000</v>
+        <v>-2710.25</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>22136.023890</v>
+        <v>22136.02389</v>
       </c>
       <c r="BY11" s="1">
-        <v>6.148896</v>
+        <v>6.1488959999999997</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2857.560000</v>
+        <v>2857.56</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3672.430000</v>
+        <v>-3672.43</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>22147.793625</v>
+        <v>22147.793624999998</v>
       </c>
       <c r="CD11" s="1">
-        <v>6.152165</v>
+        <v>6.1521650000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>4277.640000</v>
+        <v>4277.6400000000003</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5993.380000</v>
+        <v>-5993.38</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>21976.477269</v>
+        <v>21976.477268999999</v>
       </c>
       <c r="B12" s="1">
-        <v>6.104577</v>
+        <v>6.1045769999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1241.350000</v>
+        <v>1241.3499999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-307.427000</v>
+        <v>-307.42700000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>21986.906151</v>
+        <v>21986.906150999999</v>
       </c>
       <c r="G12" s="1">
-        <v>6.107474</v>
+        <v>6.1074739999999998</v>
       </c>
       <c r="H12" s="1">
-        <v>1266.160000</v>
+        <v>1266.1600000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-265.778000</v>
+        <v>-265.77800000000002</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>21997.317178</v>
+        <v>21997.317178000001</v>
       </c>
       <c r="L12" s="1">
         <v>6.110366</v>
       </c>
       <c r="M12" s="1">
-        <v>1301.390000</v>
+        <v>1301.3900000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-202.405000</v>
+        <v>-202.405</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>22007.843276</v>
       </c>
       <c r="Q12" s="1">
-        <v>6.113290</v>
+        <v>6.1132900000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1313.160000</v>
+        <v>1313.16</v>
       </c>
       <c r="S12" s="1">
-        <v>-184.195000</v>
+        <v>-184.19499999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>22018.359950</v>
+        <v>22018.359949999998</v>
       </c>
       <c r="V12" s="1">
-        <v>6.116211</v>
+        <v>6.1162109999999998</v>
       </c>
       <c r="W12" s="1">
-        <v>1325.970000</v>
+        <v>1325.97</v>
       </c>
       <c r="X12" s="1">
-        <v>-170.694000</v>
+        <v>-170.69399999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>22028.776929</v>
       </c>
       <c r="AA12" s="1">
-        <v>6.119105</v>
+        <v>6.1191050000000002</v>
       </c>
       <c r="AB12" s="1">
-        <v>1343.170000</v>
+        <v>1343.17</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.662000</v>
+        <v>-168.66200000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>22039.265860</v>
+        <v>22039.26586</v>
       </c>
       <c r="AF12" s="1">
-        <v>6.122018</v>
+        <v>6.1220179999999997</v>
       </c>
       <c r="AG12" s="1">
-        <v>1355.890000</v>
+        <v>1355.89</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.431000</v>
+        <v>-178.43100000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>22049.724966</v>
+        <v>22049.724966000002</v>
       </c>
       <c r="AK12" s="1">
         <v>6.124924</v>
       </c>
       <c r="AL12" s="1">
-        <v>1376.430000</v>
+        <v>1376.43</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.424000</v>
+        <v>-208.42400000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>22060.841301</v>
       </c>
       <c r="AP12" s="1">
-        <v>6.128011</v>
+        <v>6.1280109999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1398.060000</v>
+        <v>1398.06</v>
       </c>
       <c r="AR12" s="1">
-        <v>-252.331000</v>
+        <v>-252.33099999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>22071.899608</v>
       </c>
       <c r="AU12" s="1">
-        <v>6.131083</v>
+        <v>6.1310830000000003</v>
       </c>
       <c r="AV12" s="1">
-        <v>1422.690000</v>
+        <v>1422.69</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.450000</v>
+        <v>-312.45</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>22082.936584</v>
+        <v>22082.936583999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>6.134149</v>
+        <v>6.1341489999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1442.150000</v>
+        <v>1442.15</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.594000</v>
+        <v>-364.59399999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>22093.941818</v>
+        <v>22093.941817999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>6.137206</v>
+        <v>6.1372059999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1528.020000</v>
+        <v>1528.02</v>
       </c>
       <c r="BG12" s="1">
-        <v>-613.031000</v>
+        <v>-613.03099999999995</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>22104.787835</v>
+        <v>22104.787834999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>6.140219</v>
+        <v>6.1402190000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1683.860000</v>
+        <v>1683.86</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1057.140000</v>
+        <v>-1057.1400000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>22115.138878</v>
+        <v>22115.138878000002</v>
       </c>
       <c r="BO12" s="1">
-        <v>6.143094</v>
+        <v>6.1430939999999996</v>
       </c>
       <c r="BP12" s="1">
-        <v>1980.560000</v>
+        <v>1980.56</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1824.800000</v>
+        <v>-1824.8</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>22125.691264</v>
+        <v>22125.691264000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>6.146025</v>
+        <v>6.1460249999999998</v>
       </c>
       <c r="BU12" s="1">
-        <v>2368.530000</v>
+        <v>2368.5300000000002</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2709.650000</v>
+        <v>-2709.65</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>22136.445987</v>
+        <v>22136.445986999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>6.149013</v>
+        <v>6.1490130000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2857.850000</v>
+        <v>2857.85</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3672.350000</v>
+        <v>-3672.35</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>22148.347490</v>
+        <v>22148.34749</v>
       </c>
       <c r="CD12" s="1">
-        <v>6.152319</v>
+        <v>6.1523190000000003</v>
       </c>
       <c r="CE12" s="1">
-        <v>4276.710000</v>
+        <v>4276.71</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5976.740000</v>
+        <v>-5976.74</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>21976.758859</v>
+        <v>21976.758859000001</v>
       </c>
       <c r="B13" s="1">
-        <v>6.104655</v>
+        <v>6.1046550000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>1241.820000</v>
+        <v>1241.82</v>
       </c>
       <c r="D13" s="1">
-        <v>-307.105000</v>
+        <v>-307.10500000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>21987.180476</v>
+        <v>21987.180476000001</v>
       </c>
       <c r="G13" s="1">
-        <v>6.107550</v>
+        <v>6.1075499999999998</v>
       </c>
       <c r="H13" s="1">
-        <v>1266.530000</v>
+        <v>1266.53</v>
       </c>
       <c r="I13" s="1">
-        <v>-265.187000</v>
+        <v>-265.18700000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>21997.661897</v>
+        <v>21997.661897000002</v>
       </c>
       <c r="L13" s="1">
-        <v>6.110462</v>
+        <v>6.1104620000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1301.560000</v>
+        <v>1301.56</v>
       </c>
       <c r="N13" s="1">
-        <v>-202.256000</v>
+        <v>-202.256</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>22008.189982</v>
       </c>
       <c r="Q13" s="1">
-        <v>6.113386</v>
+        <v>6.1133860000000002</v>
       </c>
       <c r="R13" s="1">
-        <v>1313.290000</v>
+        <v>1313.29</v>
       </c>
       <c r="S13" s="1">
-        <v>-184.151000</v>
+        <v>-184.15100000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>22018.701198</v>
+        <v>22018.701197999999</v>
       </c>
       <c r="V13" s="1">
-        <v>6.116306</v>
+        <v>6.1163059999999998</v>
       </c>
       <c r="W13" s="1">
-        <v>1326.180000</v>
+        <v>1326.18</v>
       </c>
       <c r="X13" s="1">
-        <v>-170.781000</v>
+        <v>-170.78100000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>22029.482240</v>
+        <v>22029.482240000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>6.119301</v>
+        <v>6.1193010000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1343.110000</v>
+        <v>1343.11</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.514000</v>
+        <v>-168.51400000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>22040.094641</v>
       </c>
       <c r="AF13" s="1">
-        <v>6.122249</v>
+        <v>6.1222490000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1355.880000</v>
+        <v>1355.88</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.405000</v>
+        <v>-178.405</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>22050.066708</v>
+        <v>22050.066707999998</v>
       </c>
       <c r="AK13" s="1">
         <v>6.125019</v>
       </c>
       <c r="AL13" s="1">
-        <v>1376.430000</v>
+        <v>1376.43</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.396000</v>
+        <v>-208.39599999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>22061.201926</v>
+        <v>22061.201926000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>6.128112</v>
+        <v>6.1281119999999998</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1398.080000</v>
+        <v>1398.08</v>
       </c>
       <c r="AR13" s="1">
-        <v>-252.325000</v>
+        <v>-252.32499999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>22072.266798</v>
+        <v>22072.266798000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>6.131185</v>
+        <v>6.1311850000000003</v>
       </c>
       <c r="AV13" s="1">
-        <v>1422.670000</v>
+        <v>1422.67</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.437000</v>
+        <v>-312.43700000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>22083.600729</v>
+        <v>22083.600729000002</v>
       </c>
       <c r="AZ13" s="1">
         <v>6.134334</v>
       </c>
       <c r="BA13" s="1">
-        <v>1442.140000</v>
+        <v>1442.14</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.653000</v>
+        <v>-364.65300000000002</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>22094.346059</v>
       </c>
       <c r="BE13" s="1">
-        <v>6.137318</v>
+        <v>6.1373179999999996</v>
       </c>
       <c r="BF13" s="1">
-        <v>1528.000000</v>
+        <v>1528</v>
       </c>
       <c r="BG13" s="1">
-        <v>-613.018000</v>
+        <v>-613.01800000000003</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>22104.892987</v>
+        <v>22104.892986999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>6.140248</v>
+        <v>6.1402479999999997</v>
       </c>
       <c r="BK13" s="1">
-        <v>1683.880000</v>
+        <v>1683.88</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1057.160000</v>
+        <v>-1057.1600000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>22115.538656</v>
+        <v>22115.538656000001</v>
       </c>
       <c r="BO13" s="1">
         <v>6.143205</v>
       </c>
       <c r="BP13" s="1">
-        <v>1980.630000</v>
+        <v>1980.63</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1824.660000</v>
+        <v>-1824.66</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>22126.103407</v>
+        <v>22126.103406999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>6.146140</v>
+        <v>6.1461399999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>2368.300000</v>
+        <v>2368.3000000000002</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2709.290000</v>
+        <v>-2709.29</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>22136.866097</v>
+        <v>22136.866096999998</v>
       </c>
       <c r="BY13" s="1">
-        <v>6.149129</v>
+        <v>6.1491290000000003</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2857.620000</v>
+        <v>2857.62</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3671.200000</v>
+        <v>-3671.2</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>22148.877249</v>
+        <v>22148.877249000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>6.152466</v>
+        <v>6.1524660000000004</v>
       </c>
       <c r="CE13" s="1">
-        <v>4279.320000</v>
+        <v>4279.32</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5992.730000</v>
+        <v>-5992.73</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>21977.098293</v>
+        <v>21977.098292999999</v>
       </c>
       <c r="B14" s="1">
-        <v>6.104750</v>
+        <v>6.1047500000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1241.570000</v>
+        <v>1241.57</v>
       </c>
       <c r="D14" s="1">
-        <v>-307.403000</v>
+        <v>-307.40300000000002</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>21987.512758</v>
+        <v>21987.512758000001</v>
       </c>
       <c r="G14" s="1">
-        <v>6.107642</v>
+        <v>6.1076420000000002</v>
       </c>
       <c r="H14" s="1">
-        <v>1267.880000</v>
+        <v>1267.8800000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-265.207000</v>
+        <v>-265.20699999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>21998.008601</v>
+        <v>21998.008601000001</v>
       </c>
       <c r="L14" s="1">
-        <v>6.110558</v>
+        <v>6.1105580000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>1301.400000</v>
+        <v>1301.4000000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-202.348000</v>
+        <v>-202.34800000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>22008.883418</v>
+        <v>22008.883418000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>6.113579</v>
+        <v>6.1135789999999997</v>
       </c>
       <c r="R14" s="1">
-        <v>1313.300000</v>
+        <v>1313.3</v>
       </c>
       <c r="S14" s="1">
-        <v>-184.195000</v>
+        <v>-184.19499999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>22019.392620</v>
+        <v>22019.392619999999</v>
       </c>
       <c r="V14" s="1">
         <v>6.116498</v>
       </c>
       <c r="W14" s="1">
-        <v>1326.100000</v>
+        <v>1326.1</v>
       </c>
       <c r="X14" s="1">
-        <v>-170.765000</v>
+        <v>-170.76499999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>22029.829471</v>
+        <v>22029.829471000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>6.119397</v>
+        <v>6.1193970000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>1343.010000</v>
+        <v>1343.01</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.696000</v>
+        <v>-168.696</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>22040.294070</v>
+        <v>22040.29407</v>
       </c>
       <c r="AF14" s="1">
-        <v>6.122304</v>
+        <v>6.1223039999999997</v>
       </c>
       <c r="AG14" s="1">
-        <v>1355.850000</v>
+        <v>1355.85</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.386000</v>
+        <v>-178.386</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>22050.424819</v>
       </c>
       <c r="AK14" s="1">
-        <v>6.125118</v>
+        <v>6.1251179999999996</v>
       </c>
       <c r="AL14" s="1">
-        <v>1376.420000</v>
+        <v>1376.42</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.391000</v>
+        <v>-208.39099999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>22061.874965</v>
+        <v>22061.874964999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>6.128299</v>
+        <v>6.1282990000000002</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1398.100000</v>
+        <v>1398.1</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.286000</v>
+        <v>-252.286</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>22072.937237</v>
+        <v>22072.937236999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>6.131371</v>
+        <v>6.1313709999999997</v>
       </c>
       <c r="AV14" s="1">
-        <v>1422.680000</v>
+        <v>1422.68</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.470000</v>
+        <v>-312.47000000000003</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>22084.011447</v>
+        <v>22084.011447000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>6.134448</v>
+        <v>6.1344479999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1442.160000</v>
+        <v>1442.16</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.601000</v>
+        <v>-364.601</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>22094.733433</v>
+        <v>22094.733433000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>6.137426</v>
+        <v>6.1374259999999996</v>
       </c>
       <c r="BF14" s="1">
-        <v>1528.010000</v>
+        <v>1528.01</v>
       </c>
       <c r="BG14" s="1">
-        <v>-613.018000</v>
+        <v>-613.01800000000003</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>22105.259035</v>
+        <v>22105.259034999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>6.140350</v>
+        <v>6.1403499999999998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1683.780000</v>
+        <v>1683.78</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1057.140000</v>
+        <v>-1057.1400000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>22115.938925</v>
+        <v>22115.938924999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>6.143316</v>
+        <v>6.1433160000000004</v>
       </c>
       <c r="BP14" s="1">
-        <v>1980.580000</v>
+        <v>1980.58</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1824.740000</v>
+        <v>-1824.74</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>22126.534431</v>
       </c>
       <c r="BT14" s="1">
-        <v>6.146260</v>
+        <v>6.1462599999999998</v>
       </c>
       <c r="BU14" s="1">
-        <v>2368.640000</v>
+        <v>2368.64</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2708.880000</v>
+        <v>-2708.88</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>22137.296625</v>
+        <v>22137.296624999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>6.149249</v>
+        <v>6.1492490000000002</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2857.030000</v>
+        <v>2857.03</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3671.640000</v>
+        <v>-3671.64</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>22149.394546</v>
       </c>
       <c r="CD14" s="1">
-        <v>6.152610</v>
+        <v>6.1526100000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>4295.240000</v>
+        <v>4295.24</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5986.790000</v>
+        <v>-5986.79</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>21977.440036</v>
       </c>
       <c r="B15" s="1">
-        <v>6.104844</v>
+        <v>6.1048439999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1241.310000</v>
+        <v>1241.31</v>
       </c>
       <c r="D15" s="1">
-        <v>-307.125000</v>
+        <v>-307.125</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>21988.196245</v>
+        <v>21988.196244999999</v>
       </c>
       <c r="G15" s="1">
-        <v>6.107832</v>
+        <v>6.1078320000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1266.530000</v>
+        <v>1266.53</v>
       </c>
       <c r="I15" s="1">
-        <v>-265.567000</v>
+        <v>-265.56700000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>21998.696055</v>
       </c>
       <c r="L15" s="1">
-        <v>6.110749</v>
+        <v>6.1107490000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>1301.530000</v>
+        <v>1301.53</v>
       </c>
       <c r="N15" s="1">
-        <v>-202.429000</v>
+        <v>-202.429</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>22009.237530</v>
+        <v>22009.237529999999</v>
       </c>
       <c r="Q15" s="1">
         <v>6.113677</v>
       </c>
       <c r="R15" s="1">
-        <v>1313.280000</v>
+        <v>1313.28</v>
       </c>
       <c r="S15" s="1">
-        <v>-184.275000</v>
+        <v>-184.27500000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>22019.733372</v>
+        <v>22019.733371999999</v>
       </c>
       <c r="V15" s="1">
-        <v>6.116593</v>
+        <v>6.1165929999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1326.030000</v>
+        <v>1326.03</v>
       </c>
       <c r="X15" s="1">
-        <v>-170.680000</v>
+        <v>-170.68</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>22030.179614</v>
+        <v>22030.179614000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>6.119494</v>
+        <v>6.1194940000000004</v>
       </c>
       <c r="AB15" s="1">
-        <v>1343.010000</v>
+        <v>1343.01</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.400000</v>
+        <v>-168.4</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>22040.639744</v>
       </c>
       <c r="AF15" s="1">
-        <v>6.122400</v>
+        <v>6.1223999999999998</v>
       </c>
       <c r="AG15" s="1">
-        <v>1355.860000</v>
+        <v>1355.86</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.391000</v>
+        <v>-178.39099999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>22051.084994</v>
+        <v>22051.084994000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>6.125301</v>
+        <v>6.1253010000000003</v>
       </c>
       <c r="AL15" s="1">
-        <v>1376.410000</v>
+        <v>1376.41</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.443000</v>
+        <v>-208.44300000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>22062.310453</v>
+        <v>22062.310452999998</v>
       </c>
       <c r="AP15" s="1">
-        <v>6.128420</v>
+        <v>6.1284200000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1398.100000</v>
+        <v>1398.1</v>
       </c>
       <c r="AR15" s="1">
-        <v>-252.328000</v>
+        <v>-252.328</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>22073.394549</v>
+        <v>22073.394549000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>6.131498</v>
+        <v>6.1314979999999997</v>
       </c>
       <c r="AV15" s="1">
-        <v>1422.670000</v>
+        <v>1422.67</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.418000</v>
+        <v>-312.41800000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>22084.396343</v>
       </c>
       <c r="AZ15" s="1">
-        <v>6.134555</v>
+        <v>6.1345549999999998</v>
       </c>
       <c r="BA15" s="1">
-        <v>1442.130000</v>
+        <v>1442.13</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.608000</v>
+        <v>-364.608</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>22095.096009</v>
+        <v>22095.096009000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>6.137527</v>
+        <v>6.1375270000000004</v>
       </c>
       <c r="BF15" s="1">
-        <v>1528.040000</v>
+        <v>1528.04</v>
       </c>
       <c r="BG15" s="1">
-        <v>-612.981000</v>
+        <v>-612.98099999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>22105.633514</v>
+        <v>22105.633514000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>6.140454</v>
+        <v>6.1404540000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1683.920000</v>
+        <v>1683.92</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1057.110000</v>
+        <v>-1057.1099999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>22116.358540</v>
+        <v>22116.358540000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>6.143433</v>
+        <v>6.1434329999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1980.770000</v>
+        <v>1980.77</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1824.780000</v>
+        <v>-1824.78</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>22126.951080</v>
+        <v>22126.951079999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>6.146375</v>
+        <v>6.1463749999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>2368.080000</v>
+        <v>2368.08</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2708.210000</v>
+        <v>-2708.21</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>22137.710957</v>
+        <v>22137.710956999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>6.149364</v>
+        <v>6.1493640000000003</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2857.470000</v>
+        <v>2857.47</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3671.700000</v>
+        <v>-3671.7</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>22149.912865</v>
+        <v>22149.912864999998</v>
       </c>
       <c r="CD15" s="1">
-        <v>6.152754</v>
+        <v>6.1527539999999998</v>
       </c>
       <c r="CE15" s="1">
-        <v>4285.890000</v>
+        <v>4285.8900000000003</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5971.330000</v>
+        <v>-5971.33</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>21978.124016</v>
+        <v>21978.124016000002</v>
       </c>
       <c r="B16" s="1">
-        <v>6.105034</v>
+        <v>6.1050339999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>1241.300000</v>
+        <v>1241.3</v>
       </c>
       <c r="D16" s="1">
-        <v>-307.585000</v>
+        <v>-307.58499999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>21988.555882</v>
+        <v>21988.555882000001</v>
       </c>
       <c r="G16" s="1">
-        <v>6.107932</v>
+        <v>6.1079319999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>1266.410000</v>
+        <v>1266.4100000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-265.856000</v>
+        <v>-265.85599999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>21999.043255</v>
       </c>
       <c r="L16" s="1">
-        <v>6.110845</v>
+        <v>6.1108450000000003</v>
       </c>
       <c r="M16" s="1">
-        <v>1301.380000</v>
+        <v>1301.3800000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-202.595000</v>
+        <v>-202.595</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>22009.585226</v>
+        <v>22009.585225999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>6.113774</v>
+        <v>6.1137740000000003</v>
       </c>
       <c r="R16" s="1">
-        <v>1313.280000</v>
+        <v>1313.28</v>
       </c>
       <c r="S16" s="1">
-        <v>-184.310000</v>
+        <v>-184.31</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>22020.078093</v>
       </c>
       <c r="V16" s="1">
-        <v>6.116688</v>
+        <v>6.1166879999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>1325.940000</v>
+        <v>1325.94</v>
       </c>
       <c r="X16" s="1">
-        <v>-170.750000</v>
+        <v>-170.75</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>22030.834830</v>
+        <v>22030.83483</v>
       </c>
       <c r="AA16" s="1">
-        <v>6.119676</v>
+        <v>6.1196760000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1343.040000</v>
+        <v>1343.04</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.776000</v>
+        <v>-168.77600000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>22041.077743</v>
+        <v>22041.077743000002</v>
       </c>
       <c r="AF16" s="1">
         <v>6.122522</v>
       </c>
       <c r="AG16" s="1">
-        <v>1356.000000</v>
+        <v>1356</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.331000</v>
+        <v>-178.33099999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>22051.471378</v>
+        <v>22051.471377999998</v>
       </c>
       <c r="AK16" s="1">
-        <v>6.125409</v>
+        <v>6.1254090000000003</v>
       </c>
       <c r="AL16" s="1">
-        <v>1376.420000</v>
+        <v>1376.42</v>
       </c>
       <c r="AM16" s="1">
-        <v>-208.390000</v>
+        <v>-208.39</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>22062.670084</v>
+        <v>22062.670084000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>6.128519</v>
+        <v>6.1285189999999998</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1398.090000</v>
+        <v>1398.09</v>
       </c>
       <c r="AR16" s="1">
-        <v>-252.283000</v>
+        <v>-252.28299999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>22073.758117</v>
+        <v>22073.758117000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>6.131599</v>
+        <v>6.1315989999999996</v>
       </c>
       <c r="AV16" s="1">
-        <v>1422.700000</v>
+        <v>1422.7</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.431000</v>
+        <v>-312.43099999999998</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>22084.757399</v>
+        <v>22084.757398999998</v>
       </c>
       <c r="AZ16" s="1">
-        <v>6.134655</v>
+        <v>6.1346550000000004</v>
       </c>
       <c r="BA16" s="1">
-        <v>1442.100000</v>
+        <v>1442.1</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.640000</v>
+        <v>-364.64</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>22095.508184</v>
+        <v>22095.508183999998</v>
       </c>
       <c r="BE16" s="1">
-        <v>6.137641</v>
+        <v>6.1376410000000003</v>
       </c>
       <c r="BF16" s="1">
-        <v>1528.040000</v>
+        <v>1528.04</v>
       </c>
       <c r="BG16" s="1">
-        <v>-613.053000</v>
+        <v>-613.053</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>22106.053130</v>
+        <v>22106.05313</v>
       </c>
       <c r="BJ16" s="1">
-        <v>6.140570</v>
+        <v>6.1405700000000003</v>
       </c>
       <c r="BK16" s="1">
-        <v>1683.800000</v>
+        <v>1683.8</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1057.130000</v>
+        <v>-1057.1300000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>22116.754315</v>
+        <v>22116.754314999998</v>
       </c>
       <c r="BO16" s="1">
-        <v>6.143543</v>
+        <v>6.1435430000000002</v>
       </c>
       <c r="BP16" s="1">
-        <v>1980.730000</v>
+        <v>1980.73</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1824.750000</v>
+        <v>-1824.75</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>22127.388543</v>
+        <v>22127.388543000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>6.146497</v>
+        <v>6.1464970000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>2368.550000</v>
+        <v>2368.5500000000002</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2707.900000</v>
+        <v>-2707.9</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>22138.165119</v>
+        <v>22138.165119000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>6.149490</v>
+        <v>6.1494900000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2857.440000</v>
+        <v>2857.44</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3671.640000</v>
+        <v>-3671.64</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>22150.429695</v>
+        <v>22150.429694999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>6.152897</v>
+        <v>6.1528970000000003</v>
       </c>
       <c r="CE16" s="1">
-        <v>4271.770000</v>
+        <v>4271.7700000000004</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5981.870000</v>
+        <v>-5981.87</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>21978.466723</v>
+        <v>21978.466723000001</v>
       </c>
       <c r="B17" s="1">
-        <v>6.105130</v>
+        <v>6.1051299999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1241.190000</v>
+        <v>1241.19</v>
       </c>
       <c r="D17" s="1">
-        <v>-307.236000</v>
+        <v>-307.23599999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>21988.899076</v>
+        <v>21988.899076000002</v>
       </c>
       <c r="G17" s="1">
         <v>6.108028</v>
       </c>
       <c r="H17" s="1">
-        <v>1266.660000</v>
+        <v>1266.6600000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-264.663000</v>
+        <v>-264.66300000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>21999.391943</v>
+        <v>21999.391942999999</v>
       </c>
       <c r="L17" s="1">
-        <v>6.110942</v>
+        <v>6.1109419999999997</v>
       </c>
       <c r="M17" s="1">
-        <v>1301.790000</v>
+        <v>1301.79</v>
       </c>
       <c r="N17" s="1">
-        <v>-202.233000</v>
+        <v>-202.233</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>22010.236505</v>
+        <v>22010.236505000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>6.113955</v>
+        <v>6.1139549999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>1313.190000</v>
+        <v>1313.19</v>
       </c>
       <c r="S17" s="1">
-        <v>-184.227000</v>
+        <v>-184.227</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>22020.725867</v>
+        <v>22020.725867000001</v>
       </c>
       <c r="V17" s="1">
-        <v>6.116868</v>
+        <v>6.1168680000000002</v>
       </c>
       <c r="W17" s="1">
-        <v>1326.060000</v>
+        <v>1326.06</v>
       </c>
       <c r="X17" s="1">
-        <v>-170.651000</v>
+        <v>-170.65100000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>22031.225678</v>
+        <v>22031.225677999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>6.119785</v>
+        <v>6.1197850000000003</v>
       </c>
       <c r="AB17" s="1">
-        <v>1343.240000</v>
+        <v>1343.24</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.828000</v>
+        <v>-168.828</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>22041.327695</v>
       </c>
       <c r="AF17" s="1">
-        <v>6.122591</v>
+        <v>6.1225909999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1355.810000</v>
+        <v>1355.81</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.366000</v>
+        <v>-178.36600000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>22051.821057</v>
+        <v>22051.821057000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>6.125506</v>
+        <v>6.1255059999999997</v>
       </c>
       <c r="AL17" s="1">
-        <v>1376.450000</v>
+        <v>1376.45</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.399000</v>
+        <v>-208.399</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>22063.029156</v>
+        <v>22063.029156000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>6.128619</v>
+        <v>6.1286189999999996</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1398.090000</v>
+        <v>1398.09</v>
       </c>
       <c r="AR17" s="1">
-        <v>-252.276000</v>
+        <v>-252.27600000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>22074.122676</v>
+        <v>22074.122675999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>6.131701</v>
+        <v>6.1317009999999996</v>
       </c>
       <c r="AV17" s="1">
-        <v>1422.670000</v>
+        <v>1422.67</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.400000</v>
+        <v>-312.39999999999998</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>22085.171062</v>
+        <v>22085.171062000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>6.134770</v>
+        <v>6.1347699999999996</v>
       </c>
       <c r="BA17" s="1">
-        <v>1442.120000</v>
+        <v>1442.12</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.629000</v>
+        <v>-364.62900000000002</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>22095.814754</v>
+        <v>22095.814753999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>6.137726</v>
+        <v>6.1377259999999998</v>
       </c>
       <c r="BF17" s="1">
-        <v>1528.000000</v>
+        <v>1528</v>
       </c>
       <c r="BG17" s="1">
-        <v>-613.020000</v>
+        <v>-613.02</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>22106.383006</v>
       </c>
       <c r="BJ17" s="1">
-        <v>6.140662</v>
+        <v>6.1406619999999998</v>
       </c>
       <c r="BK17" s="1">
-        <v>1683.810000</v>
+        <v>1683.81</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1057.110000</v>
+        <v>-1057.1099999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>22117.175947</v>
       </c>
       <c r="BO17" s="1">
-        <v>6.143660</v>
+        <v>6.1436599999999997</v>
       </c>
       <c r="BP17" s="1">
-        <v>1980.660000</v>
+        <v>1980.66</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1824.550000</v>
+        <v>-1824.55</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>22127.782896</v>
+        <v>22127.782896000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>6.146606</v>
+        <v>6.1466060000000002</v>
       </c>
       <c r="BU17" s="1">
-        <v>2368.820000</v>
+        <v>2368.8200000000002</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2707.230000</v>
+        <v>-2707.23</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>22138.614495</v>
+        <v>22138.614495000002</v>
       </c>
       <c r="BY17" s="1">
-        <v>6.149615</v>
+        <v>6.1496149999999998</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2857.620000</v>
+        <v>2857.62</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3671.840000</v>
+        <v>-3671.84</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>22150.950036</v>
+        <v>22150.950035999998</v>
       </c>
       <c r="CD17" s="1">
-        <v>6.153042</v>
+        <v>6.1530420000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>4282.280000</v>
+        <v>4282.28</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5994.140000</v>
+        <v>-5994.14</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>21978.808616</v>
+        <v>21978.808615999998</v>
       </c>
       <c r="B18" s="1">
-        <v>6.105225</v>
+        <v>6.1052249999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1241.010000</v>
+        <v>1241.01</v>
       </c>
       <c r="D18" s="1">
-        <v>-307.441000</v>
+        <v>-307.44099999999997</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>21989.555781</v>
+        <v>21989.555780999999</v>
       </c>
       <c r="G18" s="1">
-        <v>6.108210</v>
+        <v>6.1082099999999997</v>
       </c>
       <c r="H18" s="1">
-        <v>1266.560000</v>
+        <v>1266.56</v>
       </c>
       <c r="I18" s="1">
-        <v>-264.686000</v>
+        <v>-264.68599999999998</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>22000.036779</v>
+        <v>22000.036778999998</v>
       </c>
       <c r="L18" s="1">
-        <v>6.111121</v>
+        <v>6.1111209999999998</v>
       </c>
       <c r="M18" s="1">
-        <v>1301.500000</v>
+        <v>1301.5</v>
       </c>
       <c r="N18" s="1">
-        <v>-202.724000</v>
+        <v>-202.72399999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>22010.631320</v>
+        <v>22010.63132</v>
       </c>
       <c r="Q18" s="1">
-        <v>6.114064</v>
+        <v>6.1140639999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1313.310000</v>
+        <v>1313.31</v>
       </c>
       <c r="S18" s="1">
-        <v>-184.157000</v>
+        <v>-184.15700000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>22021.109274</v>
+        <v>22021.109273999999</v>
       </c>
       <c r="V18" s="1">
-        <v>6.116975</v>
+        <v>6.1169750000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1326.040000</v>
+        <v>1326.04</v>
       </c>
       <c r="X18" s="1">
-        <v>-170.650000</v>
+        <v>-170.65</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>22031.571917</v>
+        <v>22031.571917000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>6.119881</v>
+        <v>6.1198810000000003</v>
       </c>
       <c r="AB18" s="1">
-        <v>1343.090000</v>
+        <v>1343.09</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.457000</v>
+        <v>-168.45699999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>22041.672416</v>
+        <v>22041.672416000001</v>
       </c>
       <c r="AF18" s="1">
         <v>6.122687</v>
       </c>
       <c r="AG18" s="1">
-        <v>1355.900000</v>
+        <v>1355.9</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.394000</v>
+        <v>-178.39400000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>22052.168258</v>
+        <v>22052.168258000002</v>
       </c>
       <c r="AK18" s="1">
-        <v>6.125602</v>
+        <v>6.1256019999999998</v>
       </c>
       <c r="AL18" s="1">
-        <v>1376.420000</v>
+        <v>1376.42</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.412000</v>
+        <v>-208.41200000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>22063.439347</v>
       </c>
       <c r="AP18" s="1">
-        <v>6.128733</v>
+        <v>6.1287330000000004</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1398.100000</v>
+        <v>1398.1</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.281000</v>
+        <v>-252.28100000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>22074.558698</v>
+        <v>22074.558698000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>6.131822</v>
+        <v>6.1318219999999997</v>
       </c>
       <c r="AV18" s="1">
-        <v>1422.680000</v>
+        <v>1422.68</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.403000</v>
+        <v>-312.40300000000002</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>22085.475642</v>
+        <v>22085.475642000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>6.134854</v>
+        <v>6.1348539999999998</v>
       </c>
       <c r="BA18" s="1">
-        <v>1442.130000</v>
+        <v>1442.13</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.601000</v>
+        <v>-364.601</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>22096.177287</v>
+        <v>22096.177286999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>6.137827</v>
+        <v>6.1378269999999997</v>
       </c>
       <c r="BF18" s="1">
-        <v>1528.020000</v>
+        <v>1528.02</v>
       </c>
       <c r="BG18" s="1">
-        <v>-613.012000</v>
+        <v>-613.01199999999994</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>22106.782249</v>
       </c>
       <c r="BJ18" s="1">
-        <v>6.140773</v>
+        <v>6.1407730000000003</v>
       </c>
       <c r="BK18" s="1">
-        <v>1683.790000</v>
+        <v>1683.79</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1057.120000</v>
+        <v>-1057.1199999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>22117.574236</v>
       </c>
       <c r="BO18" s="1">
-        <v>6.143771</v>
+        <v>6.1437710000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1980.620000</v>
+        <v>1980.62</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1824.710000</v>
+        <v>-1824.71</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>22128.199037</v>
+        <v>22128.199036999998</v>
       </c>
       <c r="BT18" s="1">
-        <v>6.146722</v>
+        <v>6.1467219999999996</v>
       </c>
       <c r="BU18" s="1">
-        <v>2368.930000</v>
+        <v>2368.9299999999998</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2706.830000</v>
+        <v>-2706.83</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>22139.069326</v>
+        <v>22139.069326000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>6.149741</v>
+        <v>6.1497409999999997</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2857.270000</v>
+        <v>2857.27</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3672.280000</v>
+        <v>-3672.28</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>22151.466334</v>
+        <v>22151.466334000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>6.153185</v>
+        <v>6.1531849999999997</v>
       </c>
       <c r="CE18" s="1">
-        <v>4277.000000</v>
+        <v>4277</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5988.560000</v>
+        <v>-5988.56</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>21979.453762</v>
+        <v>21979.453762000001</v>
       </c>
       <c r="B19" s="1">
-        <v>6.105404</v>
+        <v>6.1054040000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1241.290000</v>
+        <v>1241.29</v>
       </c>
       <c r="D19" s="1">
-        <v>-307.322000</v>
+        <v>-307.322</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>21989.936211</v>
       </c>
       <c r="G19" s="1">
-        <v>6.108316</v>
+        <v>6.1083160000000003</v>
       </c>
       <c r="H19" s="1">
-        <v>1266.210000</v>
+        <v>1266.21</v>
       </c>
       <c r="I19" s="1">
-        <v>-264.907000</v>
+        <v>-264.90699999999998</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>22000.429573</v>
+        <v>22000.429573000001</v>
       </c>
       <c r="L19" s="1">
-        <v>6.111230</v>
+        <v>6.1112299999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1301.430000</v>
+        <v>1301.43</v>
       </c>
       <c r="N19" s="1">
-        <v>-202.288000</v>
+        <v>-202.28800000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>22010.977991</v>
       </c>
       <c r="Q19" s="1">
-        <v>6.114161</v>
+        <v>6.1141610000000002</v>
       </c>
       <c r="R19" s="1">
-        <v>1313.230000</v>
+        <v>1313.23</v>
       </c>
       <c r="S19" s="1">
-        <v>-184.178000</v>
+        <v>-184.178</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>22021.453001</v>
+        <v>22021.453001000002</v>
       </c>
       <c r="V19" s="1">
-        <v>6.117070</v>
+        <v>6.11707</v>
       </c>
       <c r="W19" s="1">
-        <v>1326.110000</v>
+        <v>1326.11</v>
       </c>
       <c r="X19" s="1">
-        <v>-170.654000</v>
+        <v>-170.654</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>22031.921596</v>
       </c>
       <c r="AA19" s="1">
-        <v>6.119978</v>
+        <v>6.1199779999999997</v>
       </c>
       <c r="AB19" s="1">
-        <v>1343.140000</v>
+        <v>1343.14</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.793000</v>
+        <v>-168.79300000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>22042.089570</v>
+        <v>22042.08957</v>
       </c>
       <c r="AF19" s="1">
-        <v>6.122803</v>
+        <v>6.1228030000000002</v>
       </c>
       <c r="AG19" s="1">
-        <v>1355.840000</v>
+        <v>1355.84</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.405000</v>
+        <v>-178.405</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>22052.586385</v>
+        <v>22052.586384999999</v>
       </c>
       <c r="AK19" s="1">
         <v>6.125718</v>
       </c>
       <c r="AL19" s="1">
-        <v>1376.410000</v>
+        <v>1376.41</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.378000</v>
+        <v>-208.37799999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>22063.751448</v>
+        <v>22063.751447999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>6.128820</v>
+        <v>6.1288200000000002</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1398.120000</v>
+        <v>1398.12</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.295000</v>
+        <v>-252.29499999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>22074.851795</v>
+        <v>22074.851794999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>6.131903</v>
+        <v>6.1319030000000003</v>
       </c>
       <c r="AV19" s="1">
-        <v>1422.680000</v>
+        <v>1422.68</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.413000</v>
+        <v>-312.41300000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>22085.835241</v>
+        <v>22085.835241000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>6.134954</v>
+        <v>6.1349539999999996</v>
       </c>
       <c r="BA19" s="1">
-        <v>1442.130000</v>
+        <v>1442.13</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.635000</v>
+        <v>-364.63499999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>22096.539366</v>
+        <v>22096.539366000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>6.137928</v>
+        <v>6.1379279999999996</v>
       </c>
       <c r="BF19" s="1">
-        <v>1528.010000</v>
+        <v>1528.01</v>
       </c>
       <c r="BG19" s="1">
-        <v>-613.032000</v>
+        <v>-613.03200000000004</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>22107.159706</v>
+        <v>22107.159705999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>6.140878</v>
+        <v>6.1408779999999998</v>
       </c>
       <c r="BK19" s="1">
-        <v>1683.800000</v>
+        <v>1683.8</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1057.100000</v>
+        <v>-1057.0999999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>22117.996300</v>
+        <v>22117.996299999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>6.143888</v>
+        <v>6.1438879999999996</v>
       </c>
       <c r="BP19" s="1">
-        <v>1980.660000</v>
+        <v>1980.66</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1824.740000</v>
+        <v>-1824.74</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>22128.614156</v>
       </c>
       <c r="BT19" s="1">
-        <v>6.146837</v>
+        <v>6.1468369999999997</v>
       </c>
       <c r="BU19" s="1">
-        <v>2369.200000</v>
+        <v>2369.1999999999998</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2706.560000</v>
+        <v>-2706.56</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>22139.518735</v>
+        <v>22139.518735000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>6.149866</v>
+        <v>6.1498660000000003</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2857.960000</v>
+        <v>2857.96</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3671.310000</v>
+        <v>-3671.31</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>22152.017917</v>
+        <v>22152.017917000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>6.153338</v>
+        <v>6.1533379999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>4272.640000</v>
+        <v>4272.6400000000003</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5977.360000</v>
+        <v>-5977.36</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>21979.831745</v>
       </c>
       <c r="B20" s="1">
-        <v>6.105509</v>
+        <v>6.1055089999999996</v>
       </c>
       <c r="C20" s="1">
-        <v>1241.560000</v>
+        <v>1241.56</v>
       </c>
       <c r="D20" s="1">
-        <v>-307.513000</v>
+        <v>-307.51299999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>21990.283411</v>
       </c>
       <c r="G20" s="1">
-        <v>6.108412</v>
+        <v>6.1084120000000004</v>
       </c>
       <c r="H20" s="1">
-        <v>1266.010000</v>
+        <v>1266.01</v>
       </c>
       <c r="I20" s="1">
-        <v>-265.224000</v>
+        <v>-265.22399999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>22000.772310</v>
+        <v>22000.77231</v>
       </c>
       <c r="L20" s="1">
         <v>6.111326</v>
       </c>
       <c r="M20" s="1">
-        <v>1301.680000</v>
+        <v>1301.68</v>
       </c>
       <c r="N20" s="1">
-        <v>-202.454000</v>
+        <v>-202.45400000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>22011.328168</v>
       </c>
       <c r="Q20" s="1">
-        <v>6.114258</v>
+        <v>6.1142580000000004</v>
       </c>
       <c r="R20" s="1">
-        <v>1313.270000</v>
+        <v>1313.27</v>
       </c>
       <c r="S20" s="1">
-        <v>-184.207000</v>
+        <v>-184.20699999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>22021.802222</v>
+        <v>22021.802221999998</v>
       </c>
       <c r="V20" s="1">
-        <v>6.117167</v>
+        <v>6.1171670000000002</v>
       </c>
       <c r="W20" s="1">
-        <v>1326.190000</v>
+        <v>1326.19</v>
       </c>
       <c r="X20" s="1">
-        <v>-170.593000</v>
+        <v>-170.59299999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>22032.318891</v>
+        <v>22032.318890999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>6.120089</v>
+        <v>6.1200890000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1342.960000</v>
+        <v>1342.96</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.717000</v>
+        <v>-168.71700000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>22042.368800</v>
+        <v>22042.3688</v>
       </c>
       <c r="AF20" s="1">
-        <v>6.122880</v>
+        <v>6.1228800000000003</v>
       </c>
       <c r="AG20" s="1">
-        <v>1355.940000</v>
+        <v>1355.94</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.346000</v>
+        <v>-178.346</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>22052.876545</v>
+        <v>22052.876544999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>6.125799</v>
+        <v>6.1257989999999998</v>
       </c>
       <c r="AL20" s="1">
-        <v>1376.390000</v>
+        <v>1376.39</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.405000</v>
+        <v>-208.405</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>22064.109474</v>
+        <v>22064.109474000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>6.128919</v>
+        <v>6.1289189999999998</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1398.070000</v>
+        <v>1398.07</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.304000</v>
+        <v>-252.304</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>22075.218339</v>
+        <v>22075.218338999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>6.132005</v>
+        <v>6.1320050000000004</v>
       </c>
       <c r="AV20" s="1">
-        <v>1422.650000</v>
+        <v>1422.65</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.424000</v>
+        <v>-312.42399999999998</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>22086.195337</v>
+        <v>22086.195337000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>6.135054</v>
+        <v>6.1350540000000002</v>
       </c>
       <c r="BA20" s="1">
-        <v>1442.110000</v>
+        <v>1442.11</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.595000</v>
+        <v>-364.59500000000003</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>22097.263029</v>
+        <v>22097.263029000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>6.138129</v>
+        <v>6.1381290000000002</v>
       </c>
       <c r="BF20" s="1">
-        <v>1528.050000</v>
+        <v>1528.05</v>
       </c>
       <c r="BG20" s="1">
-        <v>-613.014000</v>
+        <v>-613.01400000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>22107.909161</v>
       </c>
       <c r="BJ20" s="1">
-        <v>6.141086</v>
+        <v>6.1410859999999996</v>
       </c>
       <c r="BK20" s="1">
-        <v>1683.830000</v>
+        <v>1683.83</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1057.100000</v>
+        <v>-1057.0999999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>22118.390153</v>
       </c>
       <c r="BO20" s="1">
-        <v>6.143997</v>
+        <v>6.1439969999999997</v>
       </c>
       <c r="BP20" s="1">
-        <v>1980.640000</v>
+        <v>1980.64</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1824.530000</v>
+        <v>-1824.53</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>22129.029325</v>
       </c>
       <c r="BT20" s="1">
-        <v>6.146953</v>
+        <v>6.1469529999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>2369.640000</v>
+        <v>2369.64</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2706.140000</v>
+        <v>-2706.14</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>22139.941789</v>
       </c>
       <c r="BY20" s="1">
-        <v>6.149984</v>
+        <v>6.1499839999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2857.180000</v>
+        <v>2857.18</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3671.040000</v>
+        <v>-3671.04</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>22152.855132</v>
+        <v>22152.855132000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>6.153571</v>
+        <v>6.1535710000000003</v>
       </c>
       <c r="CE20" s="1">
-        <v>4278.520000</v>
+        <v>4278.5200000000004</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5992.120000</v>
+        <v>-5992.12</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>21980.176432</v>
       </c>
       <c r="B21" s="1">
-        <v>6.105605</v>
+        <v>6.1056049999999997</v>
       </c>
       <c r="C21" s="1">
-        <v>1241.400000</v>
+        <v>1241.4000000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-307.569000</v>
+        <v>-307.56900000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>21990.626162</v>
       </c>
       <c r="G21" s="1">
-        <v>6.108507</v>
+        <v>6.1085070000000004</v>
       </c>
       <c r="H21" s="1">
-        <v>1266.740000</v>
+        <v>1266.74</v>
       </c>
       <c r="I21" s="1">
-        <v>-265.289000</v>
+        <v>-265.28899999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>22001.118052</v>
+        <v>22001.118052000002</v>
       </c>
       <c r="L21" s="1">
-        <v>6.111422</v>
+        <v>6.1114220000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1301.670000</v>
+        <v>1301.67</v>
       </c>
       <c r="N21" s="1">
-        <v>-202.518000</v>
+        <v>-202.518</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>22011.747782</v>
+        <v>22011.747781999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>6.114374</v>
+        <v>6.1143739999999998</v>
       </c>
       <c r="R21" s="1">
-        <v>1313.240000</v>
+        <v>1313.24</v>
       </c>
       <c r="S21" s="1">
-        <v>-184.257000</v>
+        <v>-184.25700000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>22022.224810</v>
+        <v>22022.22481</v>
       </c>
       <c r="V21" s="1">
-        <v>6.117285</v>
+        <v>6.1172849999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1326.030000</v>
+        <v>1326.03</v>
       </c>
       <c r="X21" s="1">
-        <v>-170.736000</v>
+        <v>-170.73599999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>22032.627868</v>
       </c>
       <c r="AA21" s="1">
-        <v>6.120174</v>
+        <v>6.1201739999999996</v>
       </c>
       <c r="AB21" s="1">
-        <v>1343.110000</v>
+        <v>1343.11</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.494000</v>
+        <v>-168.494</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>22042.712061</v>
+        <v>22042.712060999998</v>
       </c>
       <c r="AF21" s="1">
-        <v>6.122976</v>
+        <v>6.1229760000000004</v>
       </c>
       <c r="AG21" s="1">
-        <v>1355.850000</v>
+        <v>1355.85</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.435000</v>
+        <v>-178.435</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>22053.224239</v>
+        <v>22053.224238999999</v>
       </c>
       <c r="AK21" s="1">
         <v>6.125896</v>
       </c>
       <c r="AL21" s="1">
-        <v>1376.430000</v>
+        <v>1376.43</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.372000</v>
+        <v>-208.37200000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>22064.472545</v>
+        <v>22064.472545000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>6.129020</v>
+        <v>6.1290199999999997</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1398.110000</v>
+        <v>1398.11</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.282000</v>
+        <v>-252.28200000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>22075.895876</v>
+        <v>22075.895875999999</v>
       </c>
       <c r="AU21" s="1">
         <v>6.132193</v>
       </c>
       <c r="AV21" s="1">
-        <v>1422.710000</v>
+        <v>1422.71</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.434000</v>
+        <v>-312.43400000000003</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>22086.915492</v>
       </c>
       <c r="AZ21" s="1">
-        <v>6.135254</v>
+        <v>6.1352539999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>1442.130000</v>
+        <v>1442.13</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.617000</v>
+        <v>-364.61700000000002</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>22097.622167</v>
+        <v>22097.622167000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>6.138228</v>
+        <v>6.1382279999999998</v>
       </c>
       <c r="BF21" s="1">
-        <v>1528.010000</v>
+        <v>1528.01</v>
       </c>
       <c r="BG21" s="1">
-        <v>-612.972000</v>
+        <v>-612.97199999999998</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>22108.286152</v>
+        <v>22108.286152000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>6.141191</v>
+        <v>6.1411910000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1683.820000</v>
+        <v>1683.82</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1057.010000</v>
+        <v>-1057.01</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>22118.812218</v>
+        <v>22118.812217999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>6.144115</v>
+        <v>6.1441150000000002</v>
       </c>
       <c r="BP21" s="1">
-        <v>1980.570000</v>
+        <v>1980.57</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1824.630000</v>
+        <v>-1824.63</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>22129.757962</v>
       </c>
       <c r="BT21" s="1">
-        <v>6.147155</v>
+        <v>6.1471549999999997</v>
       </c>
       <c r="BU21" s="1">
-        <v>2370.340000</v>
+        <v>2370.34</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2706.260000</v>
+        <v>-2706.26</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>22140.671900</v>
+        <v>22140.671900000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>6.150187</v>
+        <v>6.1501869999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2857.060000</v>
+        <v>2857.06</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3671.530000</v>
+        <v>-3671.53</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>22153.101680</v>
+        <v>22153.10168</v>
       </c>
       <c r="CD21" s="1">
-        <v>6.153639</v>
+        <v>6.1536390000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>4292.990000</v>
+        <v>4292.99</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5986.300000</v>
+        <v>-5986.3</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>21980.518176</v>
+        <v>21980.518176000001</v>
       </c>
       <c r="B22" s="1">
-        <v>6.105699</v>
+        <v>6.1056990000000004</v>
       </c>
       <c r="C22" s="1">
-        <v>1241.660000</v>
+        <v>1241.6600000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-307.437000</v>
+        <v>-307.43700000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>21991.037858</v>
       </c>
       <c r="G22" s="1">
-        <v>6.108622</v>
+        <v>6.1086220000000004</v>
       </c>
       <c r="H22" s="1">
-        <v>1267.650000</v>
+        <v>1267.6500000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-264.394000</v>
+        <v>-264.39400000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>22001.539894</v>
+        <v>22001.539894000001</v>
       </c>
       <c r="L22" s="1">
-        <v>6.111539</v>
+        <v>6.1115389999999996</v>
       </c>
       <c r="M22" s="1">
-        <v>1301.530000</v>
+        <v>1301.53</v>
       </c>
       <c r="N22" s="1">
-        <v>-202.271000</v>
+        <v>-202.27099999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>22012.022294</v>
+        <v>22012.022293999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>6.114451</v>
+        <v>6.1144509999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1313.180000</v>
+        <v>1313.18</v>
       </c>
       <c r="S22" s="1">
-        <v>-184.242000</v>
+        <v>-184.24199999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>22022.504025</v>
+        <v>22022.504024999998</v>
       </c>
       <c r="V22" s="1">
         <v>6.117362</v>
       </c>
       <c r="W22" s="1">
-        <v>1326.110000</v>
+        <v>1326.11</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.682000</v>
+        <v>-170.68199999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>22032.977548</v>
+        <v>22032.977547999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>6.120272</v>
+        <v>6.1202719999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1342.960000</v>
+        <v>1342.96</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.723000</v>
+        <v>-168.72300000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>22043.058275</v>
+        <v>22043.058274999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>6.123072</v>
+        <v>6.1230719999999996</v>
       </c>
       <c r="AG22" s="1">
-        <v>1355.940000</v>
+        <v>1355.94</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.336000</v>
+        <v>-178.33600000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>22053.571439</v>
+        <v>22053.571438999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>6.125992</v>
+        <v>6.1259920000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1376.430000</v>
+        <v>1376.43</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.415000</v>
+        <v>-208.41499999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>22065.199152</v>
+        <v>22065.199152000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>6.129222</v>
+        <v>6.1292220000000004</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1398.110000</v>
+        <v>1398.11</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.256000</v>
+        <v>-252.256</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>22076.333842</v>
       </c>
       <c r="AU22" s="1">
-        <v>6.132315</v>
+        <v>6.1323150000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>1422.680000</v>
+        <v>1422.68</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.401000</v>
+        <v>-312.40100000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>22087.290963</v>
+        <v>22087.290962999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>6.135359</v>
+        <v>6.1353590000000002</v>
       </c>
       <c r="BA22" s="1">
-        <v>1442.110000</v>
+        <v>1442.11</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.615000</v>
+        <v>-364.61500000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>22097.984214</v>
       </c>
       <c r="BE22" s="1">
-        <v>6.138329</v>
+        <v>6.1383289999999997</v>
       </c>
       <c r="BF22" s="1">
-        <v>1528.020000</v>
+        <v>1528.02</v>
       </c>
       <c r="BG22" s="1">
-        <v>-612.963000</v>
+        <v>-612.96299999999997</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>22108.662582</v>
+        <v>22108.662582000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>6.141295</v>
+        <v>6.1412950000000004</v>
       </c>
       <c r="BK22" s="1">
-        <v>1683.760000</v>
+        <v>1683.76</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1057.110000</v>
+        <v>-1057.1099999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>22119.515544</v>
+        <v>22119.515544000002</v>
       </c>
       <c r="BO22" s="1">
-        <v>6.144310</v>
+        <v>6.1443099999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1980.530000</v>
+        <v>1980.53</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1824.530000</v>
+        <v>-1824.53</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>22129.877964</v>
+        <v>22129.877963999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>6.147188</v>
+        <v>6.1471879999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>2370.910000</v>
+        <v>2370.91</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2706.050000</v>
+        <v>-2706.05</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>22140.788460</v>
+        <v>22140.78846</v>
       </c>
       <c r="BY22" s="1">
-        <v>6.150219</v>
+        <v>6.1502189999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2856.860000</v>
+        <v>2856.86</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3671.000000</v>
+        <v>-3671</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>22153.634844</v>
       </c>
       <c r="CD22" s="1">
-        <v>6.153787</v>
+        <v>6.1537870000000003</v>
       </c>
       <c r="CE22" s="1">
-        <v>4277.210000</v>
+        <v>4277.21</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5972.000000</v>
+        <v>-5972</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>21980.938815</v>
+        <v>21980.938815000001</v>
       </c>
       <c r="B23" s="1">
-        <v>6.105816</v>
+        <v>6.1058159999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1241.340000</v>
+        <v>1241.3399999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-307.587000</v>
+        <v>-307.58699999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>21991.329011</v>
+        <v>21991.329011000002</v>
       </c>
       <c r="G23" s="1">
-        <v>6.108703</v>
+        <v>6.1087030000000002</v>
       </c>
       <c r="H23" s="1">
-        <v>1266.910000</v>
+        <v>1266.9100000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-265.159000</v>
+        <v>-265.15899999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>22001.831800</v>
+        <v>22001.8318</v>
       </c>
       <c r="L23" s="1">
-        <v>6.111620</v>
+        <v>6.1116200000000003</v>
       </c>
       <c r="M23" s="1">
-        <v>1301.770000</v>
+        <v>1301.77</v>
       </c>
       <c r="N23" s="1">
-        <v>-202.442000</v>
+        <v>-202.44200000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>22012.374229</v>
+        <v>22012.374229000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>6.114548</v>
+        <v>6.1145480000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1313.190000</v>
+        <v>1313.19</v>
       </c>
       <c r="S23" s="1">
-        <v>-184.245000</v>
+        <v>-184.245</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>22022.846760</v>
+        <v>22022.84676</v>
       </c>
       <c r="V23" s="1">
-        <v>6.117457</v>
+        <v>6.1174569999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1326.100000</v>
+        <v>1326.1</v>
       </c>
       <c r="X23" s="1">
-        <v>-170.682000</v>
+        <v>-170.68199999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>22033.327259</v>
+        <v>22033.327259000002</v>
       </c>
       <c r="AA23" s="1">
-        <v>6.120369</v>
+        <v>6.1203690000000002</v>
       </c>
       <c r="AB23" s="1">
-        <v>1343.040000</v>
+        <v>1343.04</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.550000</v>
+        <v>-168.55</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>22043.742716</v>
+        <v>22043.742716000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>6.123262</v>
+        <v>6.1232620000000004</v>
       </c>
       <c r="AG23" s="1">
-        <v>1355.900000</v>
+        <v>1355.9</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.354000</v>
+        <v>-178.35400000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>22054.272782</v>
       </c>
       <c r="AK23" s="1">
-        <v>6.126187</v>
+        <v>6.1261869999999998</v>
       </c>
       <c r="AL23" s="1">
-        <v>1376.420000</v>
+        <v>1376.42</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.407000</v>
+        <v>-208.40700000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>22065.575647</v>
+        <v>22065.575647000001</v>
       </c>
       <c r="AP23" s="1">
         <v>6.129327</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1398.090000</v>
+        <v>1398.09</v>
       </c>
       <c r="AR23" s="1">
-        <v>-252.292000</v>
+        <v>-252.292</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>22076.698925</v>
+        <v>22076.698925000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>6.132416</v>
+        <v>6.1324160000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1422.670000</v>
+        <v>1422.67</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.438000</v>
+        <v>-312.43799999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>22087.678866</v>
+        <v>22087.678865999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>6.135466</v>
+        <v>6.1354660000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1442.090000</v>
+        <v>1442.09</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.629000</v>
+        <v>-364.62900000000002</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>22098.651859</v>
+        <v>22098.651859000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>6.138514</v>
+        <v>6.1385139999999998</v>
       </c>
       <c r="BF23" s="1">
-        <v>1528.000000</v>
+        <v>1528</v>
       </c>
       <c r="BG23" s="1">
-        <v>-612.946000</v>
+        <v>-612.94600000000003</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>22109.345573</v>
+        <v>22109.345572999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>6.141485</v>
+        <v>6.1414850000000003</v>
       </c>
       <c r="BK23" s="1">
-        <v>1683.780000</v>
+        <v>1683.78</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1057.070000</v>
+        <v>-1057.07</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>22119.630152</v>
+        <v>22119.630152000002</v>
       </c>
       <c r="BO23" s="1">
         <v>6.144342</v>
       </c>
       <c r="BP23" s="1">
-        <v>1980.390000</v>
+        <v>1980.39</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1824.590000</v>
+        <v>-1824.59</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>22130.296586</v>
       </c>
       <c r="BT23" s="1">
-        <v>6.147305</v>
+        <v>6.1473050000000002</v>
       </c>
       <c r="BU23" s="1">
-        <v>2371.230000</v>
+        <v>2371.23</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2705.760000</v>
+        <v>-2705.76</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>22141.237339</v>
+        <v>22141.237338999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>6.150344</v>
+        <v>6.1503439999999996</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2856.900000</v>
+        <v>2856.9</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3671.840000</v>
+        <v>-3671.84</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>22154.175019</v>
+        <v>22154.175018999998</v>
       </c>
       <c r="CD23" s="1">
-        <v>6.153938</v>
+        <v>6.1539380000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>4286.400000</v>
+        <v>4286.3999999999996</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5994.500000</v>
+        <v>-5994.5</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>21981.218567</v>
       </c>
       <c r="B24" s="1">
-        <v>6.105894</v>
+        <v>6.1058940000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>1241.630000</v>
+        <v>1241.6300000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-307.065000</v>
+        <v>-307.065</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>21991.672740</v>
+        <v>21991.672740000002</v>
       </c>
       <c r="G24" s="1">
-        <v>6.108798</v>
+        <v>6.1087980000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>1266.920000</v>
+        <v>1266.92</v>
       </c>
       <c r="I24" s="1">
-        <v>-264.874000</v>
+        <v>-264.87400000000002</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>22002.178008</v>
+        <v>22002.178007999999</v>
       </c>
       <c r="L24" s="1">
-        <v>6.111716</v>
+        <v>6.1117160000000004</v>
       </c>
       <c r="M24" s="1">
-        <v>1301.480000</v>
+        <v>1301.48</v>
       </c>
       <c r="N24" s="1">
-        <v>-202.330000</v>
+        <v>-202.33</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>22012.723947</v>
+        <v>22012.723946999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>6.114646</v>
+        <v>6.1146459999999996</v>
       </c>
       <c r="R24" s="1">
-        <v>1313.280000</v>
+        <v>1313.28</v>
       </c>
       <c r="S24" s="1">
-        <v>-184.209000</v>
+        <v>-184.209</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>22023.470744</v>
+        <v>22023.470743999998</v>
       </c>
       <c r="V24" s="1">
-        <v>6.117631</v>
+        <v>6.1176310000000003</v>
       </c>
       <c r="W24" s="1">
-        <v>1326.070000</v>
+        <v>1326.07</v>
       </c>
       <c r="X24" s="1">
-        <v>-170.717000</v>
+        <v>-170.71700000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>22034.024105</v>
       </c>
       <c r="AA24" s="1">
-        <v>6.120562</v>
+        <v>6.1205619999999996</v>
       </c>
       <c r="AB24" s="1">
-        <v>1343.080000</v>
+        <v>1343.08</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.534000</v>
+        <v>-168.53399999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>22044.086114</v>
+        <v>22044.086114000002</v>
       </c>
       <c r="AF24" s="1">
-        <v>6.123357</v>
+        <v>6.1233570000000004</v>
       </c>
       <c r="AG24" s="1">
-        <v>1355.890000</v>
+        <v>1355.89</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.234000</v>
+        <v>-178.23400000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>22054.618494</v>
+        <v>22054.618493999998</v>
       </c>
       <c r="AK24" s="1">
-        <v>6.126283</v>
+        <v>6.1262829999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1376.420000</v>
+        <v>1376.42</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.397000</v>
+        <v>-208.39699999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>22065.936703</v>
+        <v>22065.936702999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>6.129427</v>
+        <v>6.1294269999999997</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1398.080000</v>
+        <v>1398.08</v>
       </c>
       <c r="AR24" s="1">
-        <v>-252.283000</v>
+        <v>-252.28299999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>22077.371969</v>
       </c>
       <c r="AU24" s="1">
-        <v>6.132603</v>
+        <v>6.1326029999999996</v>
       </c>
       <c r="AV24" s="1">
-        <v>1422.710000</v>
+        <v>1422.71</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.410000</v>
+        <v>-312.41000000000003</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>22088.356897</v>
+        <v>22088.356897000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>6.135655</v>
+        <v>6.1356549999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1442.080000</v>
+        <v>1442.08</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.677000</v>
+        <v>-364.67700000000002</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>22099.100243</v>
+        <v>22099.100243000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>6.138639</v>
+        <v>6.1386390000000004</v>
       </c>
       <c r="BF24" s="1">
-        <v>1528.040000</v>
+        <v>1528.04</v>
       </c>
       <c r="BG24" s="1">
-        <v>-612.952000</v>
+        <v>-612.952</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>22109.455686</v>
+        <v>22109.455686000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>6.141515</v>
+        <v>6.1415150000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1683.790000</v>
+        <v>1683.79</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1057.040000</v>
+        <v>-1057.04</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>22120.054238</v>
+        <v>22120.054238000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>6.144460</v>
+        <v>6.1444599999999996</v>
       </c>
       <c r="BP24" s="1">
-        <v>1980.420000</v>
+        <v>1980.42</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1824.510000</v>
+        <v>-1824.51</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>22130.725129</v>
+        <v>22130.725128999999</v>
       </c>
       <c r="BT24" s="1">
         <v>6.147424</v>
       </c>
       <c r="BU24" s="1">
-        <v>2371.750000</v>
+        <v>2371.75</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2706.480000</v>
+        <v>-2706.48</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>22141.665883</v>
+        <v>22141.665883000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>6.150463</v>
+        <v>6.1504630000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2856.730000</v>
+        <v>2856.73</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3671.270000</v>
+        <v>-3671.27</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>22154.713177</v>
+        <v>22154.713177000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>6.154087</v>
+        <v>6.1540869999999996</v>
       </c>
       <c r="CE24" s="1">
-        <v>4289.170000</v>
+        <v>4289.17</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5974.920000</v>
+        <v>-5974.92</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>21981.560302</v>
+        <v>21981.560302000002</v>
       </c>
       <c r="B25" s="1">
-        <v>6.105989</v>
+        <v>6.1059890000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1241.190000</v>
+        <v>1241.19</v>
       </c>
       <c r="D25" s="1">
-        <v>-307.150000</v>
+        <v>-307.14999999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>21992.017462</v>
       </c>
       <c r="G25" s="1">
-        <v>6.108894</v>
+        <v>6.1088940000000003</v>
       </c>
       <c r="H25" s="1">
-        <v>1266.240000</v>
+        <v>1266.24</v>
       </c>
       <c r="I25" s="1">
-        <v>-265.307000</v>
+        <v>-265.30700000000002</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>22002.523093</v>
       </c>
       <c r="L25" s="1">
-        <v>6.111812</v>
+        <v>6.1118119999999996</v>
       </c>
       <c r="M25" s="1">
-        <v>1301.700000</v>
+        <v>1301.7</v>
       </c>
       <c r="N25" s="1">
-        <v>-202.440000</v>
+        <v>-202.44</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>22013.421284</v>
       </c>
       <c r="Q25" s="1">
-        <v>6.114839</v>
+        <v>6.1148389999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1313.250000</v>
+        <v>1313.25</v>
       </c>
       <c r="S25" s="1">
-        <v>-184.183000</v>
+        <v>-184.18299999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>22023.877975</v>
+        <v>22023.877974999999</v>
       </c>
       <c r="V25" s="1">
-        <v>6.117744</v>
+        <v>6.1177440000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1326.010000</v>
+        <v>1326.01</v>
       </c>
       <c r="X25" s="1">
-        <v>-170.720000</v>
+        <v>-170.72</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>22034.371342</v>
+        <v>22034.371341999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>6.120659</v>
+        <v>6.1206589999999998</v>
       </c>
       <c r="AB25" s="1">
-        <v>1342.800000</v>
+        <v>1342.8</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.526000</v>
+        <v>-168.52600000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>22044.429179</v>
+        <v>22044.429178999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>6.123453</v>
+        <v>6.1234529999999996</v>
       </c>
       <c r="AG25" s="1">
-        <v>1355.990000</v>
+        <v>1355.99</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.279000</v>
+        <v>-178.279</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>22054.968471</v>
       </c>
       <c r="AK25" s="1">
-        <v>6.126380</v>
+        <v>6.1263800000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>1376.430000</v>
+        <v>1376.43</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.383000</v>
+        <v>-208.38300000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>22066.597901</v>
+        <v>22066.597901000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>6.129611</v>
+        <v>6.1296109999999997</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1398.070000</v>
+        <v>1398.07</v>
       </c>
       <c r="AR25" s="1">
-        <v>-252.303000</v>
+        <v>-252.303</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>22077.825312</v>
+        <v>22077.825312000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>6.132729</v>
+        <v>6.1327290000000003</v>
       </c>
       <c r="AV25" s="1">
-        <v>1422.670000</v>
+        <v>1422.67</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.418000</v>
+        <v>-312.41800000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>22088.757633</v>
+        <v>22088.757633000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>6.135766</v>
+        <v>6.1357660000000003</v>
       </c>
       <c r="BA25" s="1">
-        <v>1442.100000</v>
+        <v>1442.1</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.606000</v>
+        <v>-364.60599999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>22099.461796</v>
       </c>
       <c r="BE25" s="1">
-        <v>6.138739</v>
+        <v>6.1387390000000002</v>
       </c>
       <c r="BF25" s="1">
-        <v>1528.010000</v>
+        <v>1528.01</v>
       </c>
       <c r="BG25" s="1">
-        <v>-612.961000</v>
+        <v>-612.96100000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>22109.851493</v>
+        <v>22109.851492999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>6.141625</v>
+        <v>6.1416250000000003</v>
       </c>
       <c r="BK25" s="1">
-        <v>1683.800000</v>
+        <v>1683.8</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1057.050000</v>
+        <v>-1057.05</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>22120.451495</v>
+        <v>22120.451495000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>6.144570</v>
+        <v>6.1445699999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1980.550000</v>
+        <v>1980.55</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1824.420000</v>
+        <v>-1824.42</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>22131.148713</v>
+        <v>22131.148712999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>6.147541</v>
+        <v>6.1475410000000004</v>
       </c>
       <c r="BU25" s="1">
-        <v>2372.150000</v>
+        <v>2372.15</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2706.460000</v>
+        <v>-2706.46</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>22142.090986</v>
+        <v>22142.090985999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>6.150581</v>
+        <v>6.1505809999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2856.570000</v>
+        <v>2856.57</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3672.060000</v>
+        <v>-3672.06</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>22155.255769</v>
+        <v>22155.255768999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>6.154238</v>
+        <v>6.1542380000000003</v>
       </c>
       <c r="CE25" s="1">
-        <v>4273.320000</v>
+        <v>4273.32</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5983.620000</v>
+        <v>-5983.62</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>21981.902510</v>
+        <v>21981.90251</v>
       </c>
       <c r="B26" s="1">
-        <v>6.106084</v>
+        <v>6.1060840000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1241.590000</v>
+        <v>1241.5899999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-307.375000</v>
+        <v>-307.375</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>21992.706864</v>
       </c>
       <c r="G26" s="1">
-        <v>6.109085</v>
+        <v>6.1090850000000003</v>
       </c>
       <c r="H26" s="1">
-        <v>1266.530000</v>
+        <v>1266.53</v>
       </c>
       <c r="I26" s="1">
-        <v>-265.257000</v>
+        <v>-265.25700000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>22003.212130</v>
+        <v>22003.21213</v>
       </c>
       <c r="L26" s="1">
-        <v>6.112003</v>
+        <v>6.1120029999999996</v>
       </c>
       <c r="M26" s="1">
-        <v>1301.440000</v>
+        <v>1301.44</v>
       </c>
       <c r="N26" s="1">
-        <v>-202.647000</v>
+        <v>-202.64699999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>22013.770004</v>
+        <v>22013.770004000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>6.114936</v>
+        <v>6.1149360000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1313.250000</v>
+        <v>1313.25</v>
       </c>
       <c r="S26" s="1">
-        <v>-184.250000</v>
+        <v>-184.25</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>22024.224150</v>
+        <v>22024.224149999998</v>
       </c>
       <c r="V26" s="1">
-        <v>6.117840</v>
+        <v>6.1178400000000002</v>
       </c>
       <c r="W26" s="1">
-        <v>1326.060000</v>
+        <v>1326.06</v>
       </c>
       <c r="X26" s="1">
-        <v>-170.762000</v>
+        <v>-170.762</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>22034.721976</v>
+        <v>22034.721976000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>6.120756</v>
+        <v>6.1207560000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1343.160000</v>
+        <v>1343.16</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.615000</v>
+        <v>-168.61500000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>22045.084891</v>
+        <v>22045.084890999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>6.123635</v>
+        <v>6.1236350000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>1355.860000</v>
+        <v>1355.86</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.319000</v>
+        <v>-178.31899999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>22055.615981</v>
+        <v>22055.615980999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>6.126560</v>
+        <v>6.1265599999999996</v>
       </c>
       <c r="AL26" s="1">
-        <v>1376.460000</v>
+        <v>1376.46</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.394000</v>
+        <v>-208.39400000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>22067.018973</v>
+        <v>22067.018972999998</v>
       </c>
       <c r="AP26" s="1">
-        <v>6.129727</v>
+        <v>6.1297269999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1398.040000</v>
+        <v>1398.04</v>
       </c>
       <c r="AR26" s="1">
-        <v>-252.316000</v>
+        <v>-252.316</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>22078.190894</v>
+        <v>22078.190893999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>6.132831</v>
+        <v>6.1328310000000004</v>
       </c>
       <c r="AV26" s="1">
-        <v>1422.670000</v>
+        <v>1422.67</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.413000</v>
+        <v>-312.41300000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>22089.142528</v>
       </c>
       <c r="AZ26" s="1">
-        <v>6.135873</v>
+        <v>6.1358730000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1442.100000</v>
+        <v>1442.1</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.608000</v>
+        <v>-364.608</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>22099.823901</v>
       </c>
       <c r="BE26" s="1">
-        <v>6.138840</v>
+        <v>6.1388400000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1528.020000</v>
+        <v>1528.02</v>
       </c>
       <c r="BG26" s="1">
-        <v>-612.937000</v>
+        <v>-612.93700000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>22110.195718</v>
+        <v>22110.195717999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>6.141721</v>
+        <v>6.1417210000000004</v>
       </c>
       <c r="BK26" s="1">
-        <v>1683.830000</v>
+        <v>1683.83</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1057.020000</v>
+        <v>-1057.02</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>22120.875575</v>
+        <v>22120.875574999998</v>
       </c>
       <c r="BO26" s="1">
-        <v>6.144688</v>
+        <v>6.1446880000000004</v>
       </c>
       <c r="BP26" s="1">
-        <v>1980.490000</v>
+        <v>1980.49</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1824.440000</v>
+        <v>-1824.44</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>22131.568329</v>
+        <v>22131.568329000002</v>
       </c>
       <c r="BT26" s="1">
-        <v>6.147658</v>
+        <v>6.1476579999999998</v>
       </c>
       <c r="BU26" s="1">
-        <v>2372.420000</v>
+        <v>2372.42</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2707.020000</v>
+        <v>-2707.02</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>22142.512553</v>
       </c>
       <c r="BY26" s="1">
-        <v>6.150698</v>
+        <v>6.1506980000000002</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2856.830000</v>
+        <v>2856.83</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3671.530000</v>
+        <v>-3671.53</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>22155.793966</v>
+        <v>22155.793966000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>6.154387</v>
+        <v>6.1543869999999998</v>
       </c>
       <c r="CE26" s="1">
-        <v>4292.260000</v>
+        <v>4292.26</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5987.640000</v>
+        <v>-5987.64</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>